--- a/data.xlsx
+++ b/data.xlsx
@@ -4,37 +4,370 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20490" windowHeight="7695" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -42,15 +375,306 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -403,7 +1027,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -413,13 +1036,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -437,278 +1060,3092 @@
           <t>Summary</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Wordle hint and answer #660: Monday, April 10</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.pcgamer.com/wordle-hint-answer-today-660-april-10</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Today's answer to the April 10 (660) Wordle is UNDER . Previous Wordle solutions can help eliminate guesses for today's Wordle, as the answer isn't likely to be repeated . If you need any further advice feel free to check out our Wordle tips (opens in new tab)</t>
-        </is>
-      </c>
+      <c r="B2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>After complaints about 'free' Ark: Survival Evolved upgrade being sold in a $50 bundle with Ark 2, now it'll be in a DLC bundle for $60</t>
+          <t>Man fined €3,000 for duty-free tobacco stash</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.pcgamer.com/after-complaints-about-free-ark-survival-evolved-upgrade-being-sold-in-a-dollar50-bundle-with-ark-2-now-itll-be-in-a-dlc-bundle-for-dollar60</t>
+          <t>https://cyprus-mail.com/2023/04/10/man-fined-e3000-for-duty-free-tobacco-stash/</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Studio Wildcard has responded to players who were upset the Ark: Survival Evolved upgrade turned out not to be free . Studio says it will instead release the game as a standalone package that will contain several DLC upgrades . Studio: Survival Ascended will apparently have new creatures, items, structures, and other content that wasn't in the original game .</t>
+          <t xml:space="preserve"> Police in Paphos confiscated another stash of illegal duty-free tobacco products after a residential search . The search conducted at noon at the apartment and storage room of a 54-year-old suspect turned up a total of 33 cartons of cigarettes, six packs of heated cigarettes, and another 250g of manufactured tobacco, of various brands . Customs Department confirmed the products to be untaxed .</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Taste Test: This Upstart Blended Bourbon Can Compete With Whiskeys Triple the Price</t>
+          <t>Problems in the real estate market</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://robbreport.com/food-drink/spirits/taste-test-2xo-kentucky-bourbon-whiskey-innkeepers-blend-1234827429/</t>
+          <t>https://cyprus-mail.com/2023/04/10/problems-in-the-real-estate-market/</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dixon Dedman's new 2XO whiskey brand just released a $100 bourbon that holds its own against much more expensive bottles . The Innkeeper’s Blend is comprised of two sourced Kentucky bourbons . The palate is full of oaky char, which some whiskey fans love and others shy away from .</t>
+          <t xml:space="preserve"> When it comes to property promotion I see quite strange things happening, which in many cases amount to misinformation . Ads often include only brief descriptions, but if information is hidden, this can mislead the buyer into making the wrong decision . Failure to report debts, taxes, utilities or litigation for a property is a concealment of data .</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Get ready for a culinary throwdown when Cook Serve Forever launches in May</t>
+          <t>Bandial reaches out to judges to end Supreme Court division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.pcgamer.com/get-ready-for-a-culinary-throwdown-when-cook-serve-forever-launches-in-may</t>
+          <t>https://www.pakistantoday.com.pk/2023/04/10/bandial-reaches-out-to-judges-to-end-supreme-court-division/</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Supercharged cooking game Cook Serve Forever will hit early access on May 8 . The game will be set in a near-future solarpunk city where a guidebook chronicles the greatest chefs in the world . Gameplay will be an "all new dynamic cooking system" with "hundreds of new ingredients and recipes"</t>
+          <t xml:space="preserve"> Chief Justice of Pakistan, Umar Ata Bandial, has taken steps to unite the divided Supreme Court . The chief justice is trying to end the controversy surrounding the forum’s recent ruling on the election delay case in Punjab and Khyber Pakhtunkhwa . The verdict has raised questions from fellow judges, the government, and the KP Bar Council .</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Real Problem With TikTok Is Not The Algorithm. It’s All Of Us</t>
+          <t>Worried grow for whereabouts of missing Briton</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.forbes.com/sites/johnbbrandon/2023/04/09/the-real-problem-with-tiktok-is-not-the-algorithm-its-all-of-us/</t>
+          <t>https://cyprus-mail.com/2023/04/10/worried-grow-for-whereabouts-of-missing-briton/</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The real problem with TikTok is not the algorithm the social media app uses to track what you do, when you click like or comment on a video, and how long you use the app is . The more you use TikTok, the more it knows you . The tracking issue is even bigger than the political ramifications of allowing one app to influence our viewpoints .</t>
+          <t xml:space="preserve"> Ann Naisbitt, 79, has been missing for a week on Monday . Her last contact was with her son Lee, who lives in the same house in the Universal area of Paphos . Before disappearing, she was wearing black jeans, a white and orange striped short-sleeved jumper, a grey fleece and a black handbag .</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Take home the ultimate 14-inch MacBook Pro workstation at a massive $1,000 discount</t>
+          <t>Ashraf proposes national day in honour of Constitution’s adoption</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://appleinsider.com/articles/23/04/09/take-home-the-ultimate-14-inch-macbook-pro-workstation-at-a-massive-1000-discount?utm_medium=rss</t>
+          <t>https://www.pakistantoday.com.pk/2023/04/10/ashraf-proposes-national-day-in-honour-of-constitutions-adoption/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> National Assembly Speaker Raja Pervaiz Ashraf has proposed that April 10, the day when the Constitution of Pakistan was unanimously adopted by the parliament in 1973, be observed as a national day . Speaking at the inauguration ceremony of the Yadgar-i-Dastoor monument, which celebrates the Constitution’s 50th anniversary .</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>YouTube Music sleep timer not limited to podcasts, rolling out</t>
+          <t>Lehtiväite: maailmanmestari tekee ison valinnan kahden Valioliigaseuran välillä</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://9to5google.com/2023/04/09/youtube-music-sleep-timer-rolling-out/</t>
+          <t>https://www.sportti.com/uutinen.asp?CAT=3-2&amp;ID=484637</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A general YouTube Music sleep timer is now rolling out . Besides podcasting support, Youtube Music has been rolling out several quality of life improvements lately .</t>
+          <t xml:space="preserve"> Alexis Mac Allister, 24, on viimeistellyt tällä kaudella Brightonille 10 maalia 29 ottelussa . Relevon tietojen mukaan taistelusta on kuitenkin muodostamassa kahden seuran välinen kauppa . The Argentiinalaisen maailmanmestarin on 42 miljoonaa euroa Transfermarktin näke</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>16 of Napa’s Stags Leap Wineries Came Together to Make a Special-Edition Cabernet</t>
+          <t>71 year old drug mule nabbed with $3 million drugs</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://robbreport.com/food-drink/wine/collectible-cabernet-stags-leap-wineries-1234827689/</t>
+          <t>https://www.chronicle.co.zw/71-year-old-drug-mule-nabbed-with-3-million-drugs/</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stag’s Leap Wine Cellars 1973 Cabernet Sauvignon took first place among red wines at the Judgment of Paris in 1976 . 50 years after the production of the wine that put the small AVA on the map, its members offer a collaborative release .</t>
+          <t xml:space="preserve"> A 71-year-old foreign national has been arrested at the Robert Mugabe International Airport . Hans Arne Ingemar Petersson (71) was arrested by alert police detectives at the RGM with 3kgs heroin stashed in a plastic bag that was in one of his traveling bags .</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Digital Transformation In Supply Chain Management</t>
+          <t>L’Oreal buys luxury brand Aesop</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.forbes.com/sites/stevebanker/2023/04/09/digital-transformation-in-supply-chain-management/</t>
+          <t>https://cyprus-mail.com/2023/04/10/loreal-buys-luxury-brand-aesop/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France’s L’Oreal (OREP.PA) has agreed to buy Australian luxury brand Aesop from Natura &amp; Co (NTCO3.SA) for an enterprise value of $2.53 billion . For L'Oreal, which owns labels ranging from Maybelline to Lancome, the deal is its largest brand acquisition to date .</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dogs Are Humans’ Best Friends: Could We Reduce Their Carbon Footprint?</t>
+          <t>&amp;quot;És most szopogasd a nyelvem&amp;quot; - A dalai láma egy rendezvény közepén akart szájon csókolni egy kisfiút!</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.forbes.com/sites/prakashdolsak/2023/04/09/dogs-are-humans-best-friends-could-we-reduce-their-carbon-footprint/</t>
+          <t>https://www.blikk.hu/aktualis/kulfold/dalai-lama-bizarr-video-kisfiu-csok/464ymtm</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A bizarr videó, amely a múlt hónapban, az indiai M3M Alapítvány rendezvényén történt, vírusként terjedt a közösségi médiában . Hátborzongatónak és gusztustalannak tartják a dalai lá</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Wordle hint and answer #660: Monday, April 10</t>
+          <t>I’m too lazy to visit salons —Ahuofe Patri reveals why still rocks short hair after 11 years » ™-</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.pcgamer.com/wordle-hint-answer-today-660-april-10</t>
+          <t>https://www.ghanamma.com/2023/04/10/im-too-lazy-to-visit-salons-ahuofe-patri-reveals-why-still-rocks-short-hair-after-11-years/</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Today's answer to the April 10 (660) Wordle is UNDER . Previous Wordle solutions can help eliminate guesses for today's Wordle, as the answer isn't likely to be repeated . If you need any further advice feel free to check out our Wordle tips (opens in new tab)</t>
+          <t xml:space="preserve"> Former main character of Boys Kasa skit Ahuofe Patri has revealed why she has been rocking the same hairstyle for the past eleven years . The actress said she feels lazy to walk into any saloon to get her hair done . Ahoufe Patri, real name Priscilla Opoku Agyemang, admitted that although she will look wonderful in weave-ons, wigs, and other hairstyles, she simply lacks the time to sit at a salon and</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>After complaints about 'free' Ark: Survival Evolved upgrade being sold in a $50 bundle with Ark 2, now it'll be in a DLC bundle for $60</t>
+          <t>I worked as a delivery guy in America while doing music in Ghana- Rapper E.L » ™-</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.pcgamer.com/after-complaints-about-free-ark-survival-evolved-upgrade-being-sold-in-a-dollar50-bundle-with-ark-2-now-itll-be-in-a-dlc-bundle-for-dollar60</t>
+          <t>https://www.ghanamma.com/2023/04/14/i-worked-as-a-delivery-guy-in-america-while-doing-music-in-ghana-rapper-e-l/</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Studio Wildcard has responded to players who were upset the Ark: Survival Evolved upgrade turned out not to be free . Studio says it will instead release the game as a standalone package that will contain several DLC upgrades . Studio: Survival Ascended will apparently have new creatures, items, structures, and other content that wasn't in the original game .</t>
+          <t xml:space="preserve"> Elom Adablah, better known by his stage name EL has shared an intriguing facet of his personality . The Artiste of the Year at the 2016 Vodafone Ghana Awards (VGMA) shared how he had hustled in the USA to make ends meet . In a recent interview with 3Music TV, EL admitted that there was a time when he had to work as a food delivery man in the US .</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Taste Test: This Upstart Blended Bourbon Can Compete With Whiskeys Triple the Price</t>
+          <t>CDD-Ghana launches Silver Jubilee Anniversary</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://robbreport.com/food-drink/spirits/taste-test-2xo-kentucky-bourbon-whiskey-innkeepers-blend-1234827429/</t>
+          <t>https://www.ghanamma.com/2023/04/14/cdd-ghana-launches-silver-jubilee-anniversary/</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dixon Dedman's new 2XO whiskey brand just released a $100 bourbon that holds its own against much more expensive bottles . The Innkeeper’s Blend is comprised of two sourced Kentucky bourbons . The palate is full of oaky char, which some whiskey fans love and others shy away from .</t>
+          <t xml:space="preserve"> The Ghana Centre for Democratic Development (CDD-Ghana), an independent, not-for-profit research and advocacy thinktank, Thursday launched its Silver Jubilee Anniversary with a commitment to working with the media to advance democracy, good governance and inclusive development . The launch of the 25 years anniversary signified the collaboration between civil society and the media .</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Get ready for a culinary throwdown when Cook Serve Forever launches in May</t>
+          <t>Bookies expect record £150million to be bet on the Grand National — with 1 in 3 Brits punting</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.pcgamer.com/get-ready-for-a-culinary-throwdown-when-cook-serve-forever-launches-in-may</t>
+          <t>https://www.thesun.ie/sport/10549761/bookies-expect-record-bets-grand-national/</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Supercharged cooking game Cook Serve Forever will hit early access on May 8 . The game will be set in a near-future solarpunk city where a guidebook chronicles the greatest chefs in the world . Gameplay will be an "all new dynamic cooking system" with "hundreds of new ingredients and recipes"</t>
+          <t xml:space="preserve"> One in three British adults — around 18million people in all — are expected to have a punt . Paddy Power is preparing to take 15,000 bets a minute in Britain and Ireland in the hour before the National’s 5.15pm start . A worldwide audience of 600million is expected to watch the 40-strong field .</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>The Real Problem With TikTok Is Not The Algorithm. It’s All Of Us</t>
+          <t>Seruiratu hits out at Coalition Government for rediverting budget allocations</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.forbes.com/sites/johnbbrandon/2023/04/09/the-real-problem-with-tiktok-is-not-the-algorithm-its-all-of-us/</t>
+          <t>https://www.fijitimes.com/seruiratu-hits-out-at-coalition-government-for-rediverting-budget-allocations/</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The real problem with TikTok is not the algorithm the social media app uses to track what you do, when you click like or comment on a video, and how long you use the app is . The more you use TikTok, the more it knows you . The tracking issue is even bigger than the political ramifications of allowing one app to influence our viewpoints .</t>
+          <t xml:space="preserve"> Fiji Opposition leader Inia Seruiratu has slammed the Coalition Government for re-diverting $60million, which was allocated in the 2022-2023 budget for improvements and developments in key areas . At a news conference yesterday (Friday), he said for the $50m used in the back to school program — $9.6m was taken from the Health Ministry, $8.6M from the Housing Ministry and $7.1m from the Water Authority of</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>YouTube Music sleep timer not limited to podcasts, rolling out</t>
+          <t>Effects Of Too Much Salt</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://9to5google.com/2023/04/09/youtube-music-sleep-timer-rolling-out/</t>
+          <t>https://www.zimeye.net/2023/04/15/effects-of-too-much-salt/</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A general YouTube Music sleep timer is now rolling out . Besides podcasting support, Youtube Music has been rolling out several quality of life improvements lately .</t>
+          <t xml:space="preserve"> A first-of-its-kind World Health Organization (WHO) Global report on sodium intake reduction shows that the world is off-track to achieve its global target of reducing sodium intake by 30% by 2025 . The report shows that only 5% of WHO Member States are protected by mandatory and comprehensive sodium reduction policies .</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16 of Napa’s Stags Leap Wineries Came Together to Make a Special-Edition Cabernet</t>
+          <t>Another suspect arrested in multi-million dollar Seprod fraud</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://robbreport.com/food-drink/wine/collectible-cabernet-stags-leap-wineries-1234827689/</t>
+          <t>https://jamaica-star.com/article/news/20230414/another-suspect-arrested-multi-million-dollar-seprod-fraud</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stag’s Leap Wine Cellars 1973 Cabernet Sauvignon took first place among red wines at the Judgment of Paris in 1976 . 50 years after the production of the wine that put the small AVA on the map, its members offer a collaborative release .</t>
+          <t xml:space="preserve"> Ramone Bailey was apprehended during an intelligence-led operation at his current place of employment in Kingston earlier today . He was one of several individuals named yesterday by Deputy Commissioner of Police, Fitz Bailey, as a Person of Interest .</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Water situation: 2 hours a day only; 200 villagers without reliable supply for three years</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.fijitimes.com/water-situation-2-hours-a-day-only-200-villagers-without-reliable-supply-for-three-years/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> More than 200 Nabitu villagers have been facing intermittent water supply for the past three years . Water will come on at 4am then go off at 5am and the next time it comes back on will be at 8am then it goes back off again at 9am . Village nurse Alumeci Rokotovoni said she was concerned about the health implications and inconvenience faced by the Tailevu villagers .</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Cyclone recovery starts as Ilsa weakens and moves to NT</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.perthnow.com.au/news/cyclone-recovery-starts-as-ilsa-weakens-and-moves-to-nt-c-10351684</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tropical Cyclone Ilsa hit Western Australia's Kimberley coast and eastern Pilbara on Friday morning as a category 5 system . It was one of the only category 5 systems to touch down in Australia in recent years . The Bureau of Meteorology has revealed what’s next for the storm . It is expected to combine with a cold front moving east over southern Australia .</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Bishop Magaya Slams False Prophets</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.zimeye.net/2023/04/15/bishop-magaya-slams-false-prophets/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Recent developments in Zimbabwe have punctured a hole of confidence in the character and ministry of the church . Failure on the part of a section of church and obnoxious behavior of false prophets in sheep’s clothing will not be a valid excuse for non repentance and denial of the lordship of Jesus .</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Wadzajena Keeps Falling</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.zimeye.net/2023/04/16/wadzajena-keeps-falling/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Justice Wadyajena has gone down the second time in ZANU PF’s primary elections . Development means he won’t represent the revolutionary party in the 2023 elections, unless through ‘Politburo-Witchcraft’</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Shawn Mendes And Camila Cabello Were Spotted Hanging Out At Coachella — Kissing</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.buzzfeed.com/haeinjung/shawn-mendes-camila-cabello-coachella-kissing</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shawn Mendes and Camila Cabello were spotted kissing at Coachella . The two first met on tour in their teens . They dated for more than two years before calling it quits in 2021 .</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Prince Harry’s criticism of Queen Camilla in his book ‘Spare’ caused hurt, says close friend</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://insidexpress.com/entertainment/celebrities/prince-harrys-criticism-of-queen-camilla-in-his-book-spare-caused-hurt-says-close-friend/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=prince-harrys-criticism-of-queen-camilla-in-his-book-spare-caused-hurt-says-close-friend</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the memoir, Harry claimed he and his brother William begged their father not to marry Camilla . He also accused Camilla of leaking stories to the press and sacrificing him for personal gain . Camilla and Harry are due to see each other next month for the first time since book was released .</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4 Die In Minibus Crash</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.zimeye.net/2023/04/16/4-die-in-minibus-crash/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The driver of a Toyota mini bus lost control while trying to overtake another vehicle . The mini bus rolled several times, killing 2 passengers on the spot and seriously injuring several others . Two of the injured died on arrival at Murewa Hospital, while one who was critically injured has been transferred to Parirenyatwa Hospital in Harare .</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Israeli leaders rebuff Moody’s outlook cut, protests persist</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.fbcnews.com.fj/world/israeli-leaders-rebuff-moodys-outlook-cut-protests-persist/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Moody's report issued on Friday marks the latest warning about a potential economic backlash to Prime Minister Benjamin Netanyahu’s legislative push . Move includes giving politicians greater sway on selecting judges and limiting the power of the Supreme Court to strike down legislation . Moody's affirmed Israel's sovereign credit rating at “A1”, while revising its outlook to stable from positive .</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Editorial comment – A nailbiter to the end</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.fijitimes.com/editorial-comment-a-nailbiter-to-the-end/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fijian Drua lost to Brumbies in Round 8 of the Super Rugby Pacific competition at the GIO Stadium in Canberra on 14 April 2023 . The nailbiter against the top of the table side the Brumby lived up to expectations, especially in the wake of the Drua’s strong season so far . The Drua were one of the surprise packages in the competition, attracting a lot of attention .</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>U.S. face Jamaica’s challenge in 2023 Gold Cup</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://guardian.ng/sport/u-s-face-jamaicas-challenge-in-2023-gold-cup/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The United States is looking to become the first repeat winner since Mexico in 2009 and 2011 . Since the tournament launched in 1991, there has been only one year that didn’t include either USA or Mexico in the final . The other nations will be vying to disrupt the flow and have a non-USA versus Mexico final for the first time since 2017 .</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>All SIMs blocked after deadline should be removed from your databases – NCA orders telcos</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.ghanamma.com/2023/04/16/all-sims-blocked-after-deadline-should-be-removed-from-your-databases-nca-orders-telcos/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> All subscribers were asked to register their SIMs with their Ghana Cards as instructed by the Minister of Communications and Digitalisation, Ursula Owusu-Ekuful . A March 31, 2023 final deadline was given after a number of extensions . According to the Authority, all telcos are to delink from their databases all SIMs that have been disconnected in compliance with the 31st March, 20th deadline “and same should reflect in the Central SIM Register by Monday,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Foods men should reduce in order to promote prostate health</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.ghanamma.com/ng/2023/04/16/foods-men-should-reduce-in-order-to-promote-prostate-health/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Prostate health is crucial for men’s overall well-being, and diet plays an essential role in maintaining prostate health . Red Meat consumption of red meat, particularly processed and charred meats, has been associated with an increased risk of prostate cancer . Diets high in sugar and processed foods have been linked to inflammation . Excessive consumption of caffeine and alcohol may irritate the prostate gland and contribute to prostate health issues .</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Private Sector key to rural infrastructure development</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.chronicle.co.zw/private-sector-key-to-rural-infrastructure-development/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mr Marambire said the private sector is critical in infrastructure development as most players are time conscious in finishing projects within set timelines . He said there is rapid growth visibility in the rural areas, driving demand for materials such as cement . Barmlo Group of Companies has 188 permanent employees and 24 part time employees .</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>41 prisoners including 7 women freed in Ghor</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://pajhwok.com/2023/04/17/41-prisoners-including-7-women-freed-in-ghor/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The inmates were freed in western Ghor province ahead of the Eid-ul-Fitr festival . The inmates, including seven women, have been set free .</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Australia ei saanut NHL-tähteään MM-kisoihin Espanjaan</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.sportti.com/uutinen.asp?CAT=2-4&amp;ID=485016</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jääkiekon miesten MM-turnauksen pääsarja pelataan toukokuussa Riiassa ja Tampereella . Australian joukkueeseen oli tyrkyllä St. Louis Bluesin NHL-hyökkääjä Nathan Walker . Hän on viimeksi edustanut Australiaa alasarjatason MM-kisoissa 2012 .</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Entiset F1-kuskit toivat jälleen voiton Toyotalle</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.sportti.com/uutinen.asp?CAT=1-3&amp;ID=485015</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kisan ykkösiä olivat viime vuoden Le Mans-voittajat ja hallitsevat WEC-mestarit Sebastien Buemi, Brendon Hartley ja Ryo Hirakawa . Toiseksi sijoittunut Ferrarin autokunta hävisi Toyotalle kierroksella .</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Fake Payslips Drama In Court</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.zimeye.net/2023/04/17/fake-payslips-drama-in-court/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sydwell Mutuda appeared before Harare magistrate Sharon Mashavira on Wednesday . Chido Chiwakata wanted a court order directing Mutuda to pay US$120 up from $45 000 . Mutuda said he was taking home only $89 000 after deductions from his $310 000 salary .</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuel prices go up; currently selling at over GH¢13 per litre</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.ghanamma.com/2023/04/17/fuel-prices-go-up-currently-selling-at-over-gh%c2%a213-per-litre/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fuel prices have seen a marginal increase at the pumps as a litre of petrol is now selling at GH¢13.20 per litre . The upward adjustment has been attributed to the increase in the price of crude which has gone up by about 16 percent on the international market . The Chamber for Petroleum Consumers Ghana says a major option for government to alleviate the continuous price hikes of fuel is to make the Tema Oil Refinery functional .</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Man Utd go third with win at struggling Forest</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.ghanamma.com/2023/04/17/man-utd-go-third-with-win-at-struggling-forest/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Antony scored one and assisted another as Manchester United moved up to third in the Premier League table . The win puts United three points clear of fourth-placed Newcastle United and six points ahead of Tottenham Hotspur in fifth . Nottingham Forest missed out on a chance to move out of the relegation zone .</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>18 people perish in horrific road traffic accidents</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.myzimbabwe.co.zw/news/108264-18-people-perish-in-horrific-road-traffic-accidents.html</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> At least 18 people were killed in separate road traffic accidents between Friday and Sunday . Police said out of the 18 fatalities, 12 were recorded in one bus accident along the Chivhu-Murambinda road early Sunday . Two people died on the spot and two upon admission at Murewa Hospital .</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Afghanistan at Highest Risk of Famine in 25 Years as Funding Runs Dry: OCHA Warns</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.khaama.com/afghanistan-at-highest-risk-of-famine-in-25-years-as-funding-runs-dry-ocha-warns/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The United Nations Office for the Coordination of Humanitarian Aid (OCHA) warned in a new report that Afghanistan is at the highest risk of famine in the last 25 years . The Organization said that Afghanistan faces a massive humanitarian catastrophe unless urgent assistance is obtained, with roughly 20 million suffering from severe hunger and 6 million just one step away from famine .</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Back in history | New school after Wally</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.fijitimes.com/back-in-history-new-school-after-wally/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Prime Minister Ratu Sir Kamisese Mara officially opened a new three-classroom building at Korovisilou Village in Serua on June 6, 1981 . The old school was washed away in the Cyclone Wally floods in April the previous year . The building catered for students from Form 1 to 4. Named Ratu Latianara Memorial School, 140 students enjoyed learning from the new building at the start of this year .</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Six Bikita senior managers arrested for corruption</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.herald.co.zw/six-bikita-senior-managers-arrested-for-corruption/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Six senior Bikita Rural District Council officials have been arrested for corruption over allegations of illegally taking a council loan amounting to nearly $US200 000 to purchase personal vehicles without Government approval . The six, Anold Matuke, Bonface Norumedzo, Nomater Gezera, Morgan Madhura, Never Mavhuna and Philemon Madera are expected to appear in court soon after they were arrested by the Zimbabwe Anti-Corruption Commission .</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Theater play set for Independence celebration</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.chronicle.co.zw/theater-play-set-for-independence-celebration/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The theater play has been titled ‘In-dependence’ and it is set to start at 1645pm at the Zimbabwe Academy of Music . Khally Sibanda the producer said this is their way to celebrate Zimbabwe’s 43 years of freedom by using one of the skills that have been listed to be an act of freedom which is acting .</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>"Fugepesiksestä tulee mielenkiintoinen" - Superpesiskausi käynnistyy jälleen Aurinkorannikolta</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.sportti.com/uutinen.asp?CAT=4-5&amp;ID=485070</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Superpesiskausi 2023 alkaa lauantaina Aurinkorannikolta . Fugepesis pelataan Fuengirolassa 22.-23.4.4 . Lauantaina 22.4 pelataansan Superpesisottelu, jossa kohtaavat Lapuan Virkiä ja Joensuun Maila .</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Japan’s Ambassador to Kabul Meets Afghan Deputy PM</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.khaama.com/japans-ambassador-to-kabul-meets-afghan-deputy-pm/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Japanese ambassador to Afghanistan, Takashi Okada, met with Deputy Prime Minister Mawlavi Abdul Salam Hanafi . During the meeting, Deputy Minister Hanafi emphasized the need for understanding and dialogue to solve the existing problems in the country . Meanwhile, he said that pressure and restrictions could not resolve Afghanistan’s problems .</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>‘Dirty work’ pays | Keeps environment clean and some money on the side</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.fijitimes.com/dirty-work-pays-keeps-environment-clean-and-some-money-on-the-side/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> They are often looked down upon by some elements in society because of their shabby attire and the fact that they earn their livelihood by digging into bins and drains . They play a critical role in reducing the impact of flooding and keeping the PET flotsam and jetsam from ending up in waterways and into the innards of marine delicacies .</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chaos as Chatunga Mugabe and his friend damage Minister Kazembe’s car and heavily bash his driver</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.myzimbabwe.co.zw/news/108315-chaos-as-chatunga-mugabe-and-his-friend-damage-minister-kazembes-car-and-heavily-bash-his-driver.html</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bellarmine Chatunga Mugabe was arrested with accomplice, Tatenda Chinyuku for the violent act against one Lazarus Pairemanzi . The 25-year-old is the second of the two Mugabe male siblings arrested this year and charged with an offence relating to violently damaging a car .</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Zimbabwe @43: Congratulatory messages pour in</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.herald.co.zw/zimbabwe-43-congratulatory-messages-pour-in/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The United States of America’s Secretary of State, Antony Blinken said the US was committed to standing with Zimbabwe . Sadc said Zimbabwe was an important partner in its congratulatory message . The Russian Embassy in Zimbabwe said: “Happy 43rd independence day Zimbabwe”</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Villagers urged to invest early</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.fijitimes.com/villagers-urged-to-invest-early/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Villagers of Namatakula, Komave and Biausevu in Nadroga were urged to invest their money as early as possible to be able to build wealth over time . This following the launch of the ‘Noqu Vanua Investment Scheme’ by the Unit Trust of Fiji . UTOF chief executive officer Vilash Chand said the investment scheme was specifically designed to help empower ordinary Fijians in the village settings .</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>&lt;![CDATA['Mnangagwa contaminating churches,' says Chamisa]]&gt;</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://bulawayo24.com/index-id-news-sc-national-byo-229977.html</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> President Emmerson Mnangagwa has been moving around the country addressing church gatherings . The Zanu-PF leader has officiated at several church gatherings, including those of Emmanuel Makandiwa-led United Family International Church (UFIC), the Zion Christian Church and major indigenous apostolic sects .</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>&lt;![CDATA[Man forges wife's signature to facilitate divorce]]&gt;</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://bulawayo24.com/index-id-news-sc-national-byo-229968.html</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Travolta Reginald Tonderai Chitongo (29) was ordered to pay $100 000 bail and return to court on June 12, pending investigations . Allegations are that on July 6, 2020, the two solemnised their union under the Marriages Act [Marriages Act] at the Harare Magistrates Court .</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>&lt;![CDATA[Harare man who duped Nyasa Air nabbed at court]]&gt;</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://bulawayo24.com/index-id-news-sc-national-byo-229972.html</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> James Landon allegedly conned Nyasa Air Charter in a botched US$1,5 million partnership deal . The suspect is also accused of threatening a witness in violation of his bail conditions . Landon was arrested at the Harare Magistrates' Court on a pending warrant of arrest . He is expected in court today .</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>&lt;![CDATA[Sikhala violence trial kicks off]]&gt;</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://bulawayo24.com/index-id-news-sc-national-byo-229975.html</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Job Sikhala (Zengeza West) and Godfrey Sithole (Chitungwiza North) appeared before Harare magistrate Tafadzwa Miti for trial on charges of inciting violence . Sikhala initially refused to speak in court after Miti refused to further postpone the case after his lawyers failed to attend court . He was represented by Jeremiah Bamu who told the court that Sikhala and Sithole deserved more time and facilities to prepare for the trial .</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>&lt;![CDATA[Moreblessing Ali's killer further remanded in custody]]&gt;</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://bulawayo24.com/index-id-news-sc-national-byo-229971.html</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PIUS Mukandi, alias Jamba, has been further remanded in custody pending High Court indictment . Magistrate Evelyn Mashavakure remanded Mukandi to May 9 this year . Mukandi has been in remand prison for close to a year after being arrested while trying to flee from justice .</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>&lt;![CDATA[Zimbabwe faces renewed HIV funding burden]]&gt;</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://bulawayo24.com/index-id-news-sc-national-byo-229973.html</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Zimbabwe facing renewed HIV, TB and non-communicable diseases (NCDs) funding burden . Treatment of HIV and TB is increasingly becoming a burden, while NCDs are becoming killer diseases . Government committed to investing in NCD's and mental health to help fight growing risk of the two health conditions .</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>&lt;![CDATA[Zimbabwe Power Company seeks investors for 3 thermal power stations]]&gt;</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://bulawayo24.com/index-id-news-sc-national-byo-229961.html</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Zimbabwe Power Company seeking private sector investors to take over, modernise and run its three small thermal power stations in Harare, Munyati and Bulawayo . The arrangement would see the refurbishment of the plants, while the investor would be guaranteed power supplies . The three power stations date from the 1940s and 1950s and are now continuously breaking down because of old age and antiquated equipment .</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>US Dollar thrashes Pakistani Rupee in interbank</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.samaaenglish.tv/news/40035322/pakistan-us-dollar-thrashes-pakistani-rupee-in-interbank</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The US Dollar on Tuesday gained 53 paisas against the Pakistani Rupee in the interbank trading . The new price of the US dollar reached Rs285.50 in interbank . In the open market, the American currency reached Rs296 with a record Rs3 gains .</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Verdict reserved on Imran’s plea against arrest in cases filed on, after May 9</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.samaaenglish.tv/news/40035316/pakistan-verdict-reserved-on-imrans-plea-against-arrest-in-cases-filed-on-after-may-9</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The Lahore High Court has reserved its verdict on PTI Chairman Imran Khan’s petition seeking prevention of his arrest in the cases registered on or after May 9 . Justice Safdar Saleem Shahid reserved the verdict . Imran Khan does not have a protective bail, and if the court orders, he can appear at 11am, the counsel said .</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Binance extends support for PEPE and SUI with new isolated margin pairs</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://insidebitcoins.com/news/binance-extends-support-for-pepe-and-sui-with-new-isolated-margin-pairs</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The world’s largest cryptocurrency exchange by trading volumes, Binance, is expanding its support for SUI, the native token for the Sui Network, and the PEPE meme coin . Binance has also unveiled new isolated margin pairs for the PepE and SUI tokens . The prices of the two tokens made significant gains after they were listed on the Binance exchange . The price trend shows traders are yet to react to the latest additions .</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>CM Mohsin gives nod to try May 9 rioters under army act</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.samaaenglish.tv/news/40035320/pakistan-cm-mohsin-gives-nod-to-try-may-9-rioters-under-army-act</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Caretaker Punjab Chief Minister Mohsin Naqvi approved bringing the arsonists involved in the attack on civil and military installations following Imran Khan’s arrest to justice under Pakistan Army Act . The interim Punjab executive gave the approval to form a joint investigation team for cases against miscreants involved in May 9 mayhem .</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Six killed, 14 injured in Chaghi road accident</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.samaaenglish.tv/news/40035321/pakistan-six-killed-14-injured-in-chaghi-road-accident</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Unfortunate incident took place at the RHC Nokkundi area of Chaghi, in Balochistan province, on Tuesday . Accident involved a head-on collision between two vehicles, resulting in an immediate loss of life . Police, in the meantime, launched an investigation to ascertain the cause behind the incident .</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Shiba Inu’s BONE and BabyDoge Tokens Score Major Listing</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://ca.investing.com/news/cryptocurrency-news/shiba-inus-bone-and-babydoge-tokens-score-major-listing-2994514</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> U.Today - Tarmex, a popular digital asset exchange, it will be listing Bone ShibaSwap (BONE) and Baby Doge Coin (BABYDOGE) today . As of 08:00 UTC, users have been able to deposit these tokens in anticipation of trading .</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Digital assets should be valued as ‘proper property’ — Sandbox co-founder</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://thecryptonewswire.com/digital-assets-should-be-valued-as-proper-property-sandbox-co-founder/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Around 5 billion people are online and digitally-bound assets should get the same treatment as any other type of property, says Sandbox co-founder Sebastien Borget . Borget said governments should “value the work [and] recognize the jobs” that happen in the space and start to treat “the digital economy as a real economy”</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Optimism’s major ‘Bedrock’ upgrade set for June 6</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://thecryptonewswire.com/optimisms-major-bedrock-upgrade-set-for-june-6/</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Optimism’s major ‘Bedrock’ upgrade set for June 6 . The much-needed upgrade will provide a number of improvements across the network . The upgrade will come at a time when competition in the layer 2 space has been heating up .</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Lido Staked Ethereum Withdrawals Stressed Crypto Market, LDO Price Jumps 10% | Coingape</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://coingape.com/lido-staked-ethereum-withdrawals-stressed-crypto-market-ldo-price-jumps-10/</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lido enabled staked ETH withdrawals as the Lido V2 upgrade officially went live on the Ethereum mainnet late Monday . Lido said it will enable ETH withdrawals by May end . Users can unstake their stETH or wstETH through withdrawals on Lido directly without any fee . On Tuesday, ETH withdrawals jumped significantly higher and recorded 3400 ETH worth over $6 million in just an hour during Asia's morning hours .</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Attempting to reframe the conversation</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://dailythepatriot.com/attempting-to-reframe-the-conversation/</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Videos that have been released of arsonists allegedly confessing to their crimes do not appear to be the fulfillment of the PM’s promise that they were supposed to be . Videos may be gratifying to some since they boosted the number of people in the ruling coalition who wanted to outlaw the PTI because it was a violent party . They do not, however, constitute admissible evidence in a court of law .</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>How high &amp;amp; low can you go in Zelda: Tears of the Kingdom? Sky limit, depth, more</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.dexerto.com/legend-of-zelda/how-high-low-can-you-go-in-zelda-tears-of-the-kingdom-sky-limit-depth-more-2147397/</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The Legend of Zelda: Tears of the Kingdom drops players in a giant world . But just how high is the sky limit and how low can you go? So far, the lowest area that we can find is at . To achieve this, one must hop in their balloon and continue going up all the way .</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Breaking: Judge Torres Denies the SEC’s Motion to Seal the Hinman Documents-Is This the Final Nail on the Coffin?</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://coinpedia.org/news/breaking-judge-torres-denies-the-secs-motion-to-seal-the-hinman-documents-is-this-the-final-nail-on-the-coffin/</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The SEC has requested to redact three categories of information, namely, the names and other identifying information of the SEC’s experts &amp; XRP investor declarants . Also included personal and financial information, and internal SEC documents reflecting debate and deliberation by SEC officials . With the new findings in the case, many speculations about ‘behind the curtains’ activities have emerged .</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Breaking: Ripple Secures Another Win Against US SEC; Hinman Docs To Go Public | Coingape</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://coingape.com/xrp-lawsuit-news-ripple-secures-another-win-against-us-sec/</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ripple Labs, the defendant in the long running legal battle against the U.S. Securities and Exchange Commission (SEC) has managed to secure another win . In the latest court order, Judge Analisa Torres denied the US SEC’s motion to seal the infamous Hinman speech related documents . Unedited Hinman email and documents will be made public soon .</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Bitcoin Large Whale Addresses Accumulated 84,897 BTC In Five Week, Price Rally Coming? | Coingape</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://coingape.com/bitcoin-large-whale-addresses-accumulated-84897-btc-in-five-week-price-rally-coming/</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bitcoin (BTC) is trading at $27,054 and has a market cap of $524 billion . Despite this, Bitcoin key whale addresses have been accumulating at a steady rate over the last five weeks . Bitcoin whale addresses holding between 1K to 10K BTC have accumulated ~85,000 Bitcoins over the past few weeks .</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Overwatch 2 dev responds to backlash after PVE plan changes</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.dexerto.com/overwatch/overwatch-2-dev-responds-to-backlash-after-pve-plan-changes-2147393/</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Executive Producer Jared Neuss has responded to the backlash from the community after the game’s PvE plans shifted . While the PvE component has been reduced in certain capacities, it does not necessarily mean that the game mode is gone forever . Many have come forth to state that PvE content would still be delivered to the game .</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Modern Warfare 2 devs tease return of a classic map CDL pros tested ahead of launch</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.dexerto.com/call-of-duty/modern-warfare-2-devs-tease-return-of-a-classic-map-cdl-pros-tested-ahead-of-launch-2146158/</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Modern Warfare 2 devs have teased that a fan-favorite CoD map is on its way back to the spotlight . Pro players have already tested it out and it's coming pretty soon, says one of the devs . Modern Warfare 2019's Shoot House is set to launch on June 14 .</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Auckland City beats Suva, qualifies for semis</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://fijilive.com/auckland-city-beats-suva-qualifies-for-semis/</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Auckland City FC defeated Suva 3-1 in their second Group A match of the 2023 OFC Champions League in Vanuatu today to book their spot in the semifinals . Both teams opted to start the match with the same 11 that got them earlier wins in the tournament where Suva thumped Lupe Ole Soaga 6-0 . Suva will face Solomon Warriors in their last group match on Saturday .</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Unplugged Forever: Tragic News Shakes the Music World as Legendary Bassist Kelly Rusike Of The Rusike Brothers Dies</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://iharare.com/unplugged-forever-tragic-news-shakes-the-music-world-as-legendary-bassist-kelly-rusike-of-the-rusike-brothers-dies/</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Legendary Zimbabwean bass guitarist Kelly Rusike of the Rusike Brothers has died, his family confirmed earlier today . Rusike succumbed to diabetes . He will be remembered as one of the pioneers of Zimbabwean jazz music . He was part of the family band formed in 1978 in Lusaka, Zambia .</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>UK Lawmakers' Bid to Regulate Crypto as Gambling Could Be a Political Problem, Invites Industry Wrath</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://cryptoflings.com/uk-lawmakers-bid-to-regulate-crypto-as-gambling-could-be-a-political-problem-invites-industry-wrath/</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> “This latest Treasury Select Committee report goes against the grain,” Mark Foster, the Crypto Council for Innovation’s European Union (EU) policy lead, told CoinDesk . “It misunderstands and misrepresents digital assets. There are practical use cases around remittances, payments and pathways for greater financial inclusion.”</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Bitcoin Celebrates Major Milestone: 40 Million Crypto Wallets Created</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://insidebitcoins.com/news/bitcoin-celebrates-major-milestone-40-million-crypto-wallets-created</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bitcoin.com has made a remarkable stride in its global mission to promote cryptocurrency adoption, as it proudly announces the creation of its 40 millionth crypto wallet . This milestone underscores the significant momentum behind the adoption of digital assets across the globe . The company recognizes the users’ steadfast belief in the potential of cryptocurrencies and their trust in the Bitcoin .</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>BlackRock Fund Makes Waves with $1.98M Pepe Coin Swap</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://investorbites.com/blackrock-fund-makes-waves-with-1-98m-pepe-coin-swap/</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The PEPE worth $1.98 million was transferred from Binance, a renowned cryptocurrency exchange, to four other addresses . The move occurred two hours ago and captured the crypto community’s attention . BlackRock Fund previously netted an impressive profit of $2.39 million, marking a staggering 10-fold return on its initial .</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Tokenization Push: Ripple Acquires Crypto Custody Firm Metaco for $250M</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://insidebitcoins.com/news/tokenization-push-ripple-acquires-crypto-custody-firm-metaco-for-250m</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ripple, the creator of the well-known payments network and XRP token, announced an exciting acquisition of Metaco, a Swiss digital asset custodian and tokenization provider . The acquisition marked a significant step forward for Ripple as it expanded its enterprise offering to include custody, issuance, and settlement of tokenized assets . According to Ripple, they project the institutional crypto custody market to reach an impressive $10 trillion by 2030 .</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Final Decision in Ripple v. SEC: Lawyers Agree on Final Outcome</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://insidebitcoins.com/news/final-decision-in-rripple-v-sec-lawyers-agree-on-final-outcome</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In a notable development, a judge has issued an order instructing the U.S. Securities and Exchange Commission (SEC) to keep the documents about William Hinman, a former SEC official, sealed in the Ripple lawsuit . This decision has attracted considerable attention, as these documents are pivotal in assessing allegations of and its digital asset XRP . Lawyer Fred Rispoli has shared his perspective on the current situation, showing that the summary judgment ruling in Ripple is likely approaching its conclusion .</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Top 6 Methods Of Storing Cryptocurrency</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://nulltx.com/top-6-methods-of-storing-cryptocurrency/</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hardware wallets are considered by many to be the most secure way to store and manage your cryptocurrencies . Cold storage refers to any method of storing cryptocurrencies offline . Multi-sig wallets require multiple signatures or private keys to authorize a transaction . Mobile wallets, desktop wallets, and web wallets are less secure than hardware wallets .</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>FTX leadership sues Sam Bankman-Fried over $220M deal made prior to bankruptcy</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://cryptopress.network/ftx-leadership-sues-sam-bankman-fried-over-220m-deal-made-prior-to-bankruptcy/</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FTX lawyers are suing former CEO Sam Bankman-Fried, co-founder Zixiao Wang, and former senior executive Nishad Singh over the $220 million acquisition of stock-clearing platform Embed . FTX paid $220M to acquire Embed through its U.S. subsidiary after having allegedly “performed almost no due diligence” on the platform . After FTX filed for bankruptcy, the judge in charge of the proceedings approved the sales of Emb</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Galaxy Executed Its First OTC Options Trade as Demand for On-Chain Options Ramps Up</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://cryptoflings.com/galaxy-executed-its-first-otc-options-trade-as-demand-for-on-chain-options-ramps-up/</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ability to trade bilateral options tied to cryptocurrencies with Galaxy removes credit risk, which is normally associated with traditional OTC options trades . This is because users send their collateral to a smart contract rather than to a counterparty, making the user less exposed to the counterparty and what they might be doing with one’s collateral .</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Blockchain arms race risks being won by ‘adversarial nations’ — US crypto lobby group</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://thecryptonewswire.com/blockchain-arms-race-risks-being-won-by-adversarial-nations-us-crypto-lobby-group/</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The Chamber of Digital Commerce has urged Congress to set up a Digital Asset and ... Solarium Commission . Failure to act would enable “adversarial nations” to further their activities in the space that “endanger U.S. leadership and dollar primacy” It cited growing number of countries considering or choosing to trade with China directly in yuan .</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Coin Cafe to repay $4.3M in fees that ‘wiped out’ investors’ Bitcoin accounts</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://thecryptonewswire.com/coin-cafe-to-repay-4-3m-in-fees-that-wiped-out-investors-bitcoin-accounts/</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Coin Cafe was charging investors ‘exorbitant and undisclosed fees’ with one user being charged recurring fees of $51,000 over a span of 13 months . New York State Attorney General Letitia James ordered the platform to repay $4.3M in fees that ‘wiped out’ investors’ Bitcoin accounts . One New York investor incurred fees exceeding $10,000 in a single month .</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>FTX pursues $244M clawback from ‘wildly inflated’ Embed acquisition deal</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://thecryptonewswire.com/ftx-pursues-244m-clawback-from-wildly-inflated-embed-acquisition-deal/</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FTX lawyers want to claw back $243.7 million from Embed insiders and executives, claiming its former leadership paid a “wildly inflated” price for the stock-trading platform . FTX's new leadership alleges the acquisition was conducted without enough due diligence . As part of the purchase, FTX also paid Embed employees a total of $70 million in retention bonuses . The majority of that sum — $55 million — was paid to Embed CEO Michael Giles</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Wells Fargo to pay $1B in shareholders lawsuit settlement</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://thecryptonewswire.com/wells-fargo-to-pay-1b-in-shareholders-lawsuit-settlement/</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wells Fargo has reached a settlement in a class-action lawsuit, agreeing to pay shareholders $1 billion . The lawsuit alleged that the bank misled its shareholders about its efforts to resolve the 2016 fake accounts scandal . A Redditor highlighted the recurring violations of regulations by banks, expressing their frustration at the relatively muted response from the SEC .</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Why Viking Therapeutics Stock Is Buckling Today</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://crypto-truth.com/why-viking-therapeutics-stock-is-buckling-today/</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Viking Therapeutics ( -5.04%) were down by 6.45% on moderate volume as of 1:42 p.m. ET Thursday afternoon . The biotech's shares can't escape the broader downward trend among its peer group today . Investors seem concerned that this adverse legal action by the FTC may slow down business development activity in biopharma .</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Imran seeks inquiry, condemns attack on armed forces</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://dailythepatriot.com/imran-seeks-inquiry-condemns-attack-on-armed-forces/</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Imran Khan denounced the attack on army posts on Thursday and claimed that PDM wanted to drive PTI out of mainstream politics by putting the army against the opposition party . The former prime minister said his party had “no conflict” with the establishment as authorities intensified their campaign of crackdown against PTI .</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Pudgy Penguins Launches NFT-Inspired Toys – The New Toys Raise $500K In 48 Hrs</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://insidebitcoins.com/news/pudgy-penguins-launches-nft-inspired-toys-the-new-toys-raise-500k-in-48-hrs</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pudgy Penguins is a non-fungible token collection featuring a fixed set of 8,888 NFTs on the Ethereum network . The new products will revolutionize both the toy and the web3 industries . The first edition of Pudy Penguins Toys features about 100,000 toys, priced from $5 to $35 . The NFT collection has raised a 24-hour sales volume of 469 ETH in the past 24 hours .</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Turkish lira hits record low as bonds steady after post-election rout</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://arynews.tv/turkish-lira-hits-record-low-as-bonds-steady-after-post-election-rout/</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Turkey’s lira weakened to a record low against the dollar on Thursday, after incumbent Tayyip Erdogan's lead in presidential elections surprised markets . The cost of insuring the country's debt against default fell slightly, but equity markets and banking stocks endured fresh losses in afternoon trading . Erdogan's stronger-than-expected showing has rattled markets that were betting on an end to his more than two-decade rule .</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Qantas adds extra flights, Joyce says it will put ‘downward pressure’ on fares</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.watoday.com.au/business/companies/qantas-adds-extra-flights-joyce-says-it-will-put-downward-pressure-on-fares-20230519-p5d9nf.html?ref=rss&amp;utm_medium=rss&amp;utm_source=rss_business</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Qantas has unveiled a swath of additional services to New York, Tokyo and Los Angeles, as well as two new international routes from Brisbane from October . The carrier has committed to lease two Airbus A330s from Finnair to help the airline meet its goal of returning to 100 per cent of pre-COVID-19 international flying capacity by March 2024 . The decision was met with outcry from pilots who accused the carrier of poor fleet planning and “outsourcing the spirit of Australia</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Hayleys, CL Synergy vie for MCA Super Premier League T20 tomorrow</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://www.ft.lk/sports/Hayleys--CL-Synergy-vie-for-MCA-Super-Premier-League-T20-tomorrow/23-748530</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hayleys Group and CL Synergy entered the Final of the 30th Singer - MCA Super Premier League T+20 tournament 2023 . Hayleys beat Fairfirst Insurance by three wickets with two deliveries to spare in the Semi Finals played yesterday . The bottom half Semi Final at the Colts grounds between CDB Finance and CLSynergy was abandoned due to dangerous wicket .</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Over 2,000 tourists on cruise liner at Hambantota Port</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://www.ft.lk/front-page/Over-2-000-tourists-on-cruise-liner-at-Hambantota-Port/44-748542</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Two thousand two hundred passengers arrived at the Hambantota International Port (HIP) yesterday, on board cruise liner, Mein Schiff 5 . The vessel is on a 60 day cruise from Hong Kong to Heraklion in Greece, visiting several ports in Japan, South Korea, Taiwan, Vietnam, Thailand, Singapore, Sri Lanka, Oman and Jordan .</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Eagles Quadrangle Cup 2023 begins in China Bay</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.ft.lk/sports/Eagles-Quadrangle-Cup-2023-begins-in-China-Bay/23-748529</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The 2nd edition of the Eagles Quadrangle Cup Golf Tournament began yesterday at Eagles Golf Links in China Bay, Trincomalee . The two-day event is conducted by the Sri Lanka Air Force Eagles Golf Link and Courses in partnership with SLT-MOBITEL .</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Community Calls Coinbase to Relist XRP as Ripple CTO and General Counsel React to Major Development</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://timestabloid.com/community-calls-coinbase-to-relist-xrp-as-ripple-cto-and-general-counsel-react-to-major-development/</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A recent court order regarding Coinbase’s Writ of Mandamus against the United States Securities and Exchange Commission (SEC) has surfaced, leading to diverse reactions from top Ripple chiefs. The new order seems like a significant turning point in the SEC’s lawsuit against Coinbase, but what does the Coinbase Mandamus action involve? Coinbase Mandamus Action: Court […] The post Community Calls Coinbase to Relist XRP as Ripple CTO and General Counsel React to Major Development appeared first on Times Tabloid.A recent court order regarding Coinbase’s Writ of Mandamus against the United States Securities and Exchange Commission (SEC) has surfaced, leading to diverse reactions from top Ripple chiefs. The new order seems like a significant turning point in the SEC’s lawsuit against Coinbase, but what does the Coinbase Mandamus action involve? Coinbase’s Chief Legal Officer, Paul Grewal, that the Third Circuit Court issued an order in its Mandamus action, instructing the SEC to indicate whether it chose to reject the exchange’s petition for rulemaking.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-06-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Gov. Abiodun says Nigerian governors endorse APC zoning arrangement on NASS leadership</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://dailynigerian.com/gov-abiodun-nigerian-governors/</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The Nigeria Governors Forum, NGF, has endorsed the zoning arrangement of the All Progressives Congress, APC, for the election of the presiding officers of the 10th National Assembly. Dapo Abiodun of Ogun said this in a statement by Rep. Tajudeen Abbas Campaign Team in Abuja after receiving a delegation of the Joint Task-10th Assembly. Abiodun says Nigerian governors endorse APC zoning arrangement on NASS leadership appeared first on Daily Nigerian.The Nigeria Governors Forum, NGF, has endorsed the zoning arrangement of the All Progressives Congress, APC, for the election of the presiding officers of the 10th National Assembly. Dapo Abiodun of Ogun said this in a statement by Rep. Tajudeen Abbas Campaign Team in Abuja after receiving a delegation of the Joint Task-10th Assembly. He said that during the meeting, Mr Tinubu sought the support of the governors for the APC candidates to make the election easier for them.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-06-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Minister of mines meets Chinese ambassador in Kabul</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.ariananews.af/minister-of-mines-meets-chinese-ambassador-in-kabul/</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A press release from the Ministry of Mines and Petroleum said that during the meeting, the officials discussed investment opportunities, progress in the extraction in Kashkari oil field, and starting work on […] The post Minister of mines meets Chinese ambassador in Kabul first appeared on Ariana News.A press release from the Ministry of Mines and Petroleum said that during the meeting, the officials discussed investment opportunities, progress in the extraction in Kashkari oil field, and starting work on Mes Aynak copper mine.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-06-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>'I'm going to Miami': Messi confirms move to MLS</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://koreatimes.co.kr/www/nation/2023/06/600_352530.html?utm_source=fl</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lionel Messi on Wednesday announced that he intends to join Major League Soccer side Inter Miami as a free agent after parting ways with French champions Paris St Germain and snubbing a lucrative contract offer in Saudi Arabia.Argentina's Lionel Messi, right, and France's Eduardo Camavinga, left, fight for the ball during the World Cup final soccer match between Argentina and France at the Lusail Stadium in Lusail, Qatar, Dec. 18, 2022. AP-Yonhap Lionel Messi on Wednesday announced that he intends to join Major League Soccer side Inter Miami as a free agent after parting ways with French champions Paris St Germain and snubbing a lucrative contract offer in Saudi Arabia. Messi, who played his final game for PSG over the weekend, was also linked with a return to Barcelona, but the Spanish club have had their hands tied due to LaLiga's financial fair play rules. Messi, who led Argentina to World Cup glory in Qatar in December and has earned a record seven Ballon d'Or awards, won the Ligue 1 title in his two seasons with PSG as well as the French Super Cup in 2022. "After winning the World Cup and not being able to go to Barca, it was time to go to the U.S. league to experience football in a different way and enjoy the day-to-day," Messi said. AP-Yonhap Ownership stake The move is also a big win for MLS, which welcomed Messi while adding that work remained to finalize the details of the formal agreement. Messi had wanted to go to a club where he could eventually have an ownership stake, a source with knowledge of the negotiations told Reuters this week, and his contract is expected to pave the way for him to do so after he retires. He will also receive a cut of the revenue from Apple TV's MLS Season Pass, which broadcasts the league's games, and be able to maximize his existing sponsorship deal with Adidas. Inter Miami are co-owned by former England captain David Beckham, who was one of the first major European stars to move to the United States to play in the MLS, winning the MLS Cup twice with Los Angeles Galaxy. Messi will have his work cut out in Miami, however, with the club at rock bottom of the Eastern Conference standings - six points from ninth place, the final spot which would give them a chance of qualifying for the playoffs. Argentina's Lionel Messi waves after receiving the Golden Ball award for best player of the tournament at the end of the World Cup final soccer match between Argentina and France at the Lusail Stadium in Lusail, Qatar, Dec. 18, 2022. AP-Yonhap PSG Exit Once the crown jewel of European football, Messi has effectively been let go by two super clubs in two years - for free. Even before he could rest on his World Cup laurels he found himself in the eye of a storm when, for the first time in his illustrious career, his club's fans turned against him amid PSG's troubling form.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-06-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Korea falls to Italy in FIFA U-20 World Cup semifinals</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://koreatimes.co.kr/www/nation/2023/06/600_352613.html?utm_source=fl</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Korea lost to Italy 2-1 in the semifinals of the FIFA U-20 World Cup on Thursday, as they fell one win shy of a second straight trip to the championship match.Korea's Lee Seung-won, right, and Italy's Mattia Zanotti go for a header during a FIFA U-20 World Cup semifinal soccer match at Diego Maradona stadium in La Plata, Argentina, Thursday, June 8. AP-Yonhap Korea lost to Italy 2-1 in the semifinals of the FIFA U-20 World Cup on Thursday, as they fell one win shy of a second straight trip to the championship match. The country captured the FIFA Women's U-17 World Cup title in 2010. Italy's Simone Pafundi scores his side's second goal against Korea during a FIFA U-20 World Cup semifinal soccer match at Diego Maradona stadium in La Plata, Argentina, Thursday, June 8. The country captured the FIFA Women's U-17 World Cup title in 2010. (Yonhap) Korea's goalkeeper Kim Joon-hong makes a save during a FIFA U-20 World Cup semifinal soccer match against Italy at Diego Maradona stadium in La Plata, Argentina, Thursday, June 8. AP-Yonhap Korea's Cho Young-kwang, left, and Italy's Samuel Giovane compete for the ball during a FIFA U-20 World Cup semifinal soccer match at the Diego Maradona stadium in La Plata, Argentina, Thursday, June 8. AP-Yonhap Korea's Lee Seung-won, center, celebrates after scoring a penalty goal against Italy during a FIFA U-20 World Cup semifinal soccer match at the Diego Maradona stadium in La Plata, Argentina, Thursday, June 8. AP-Yonhap Italy's Filippo Fiumanol, left, and Korea's Park Hyun-bin, right, go for a header during a FIFA U-20 World Cup semifinal soccer match at the Diego Maradona stadium in La Plata, Argentina, Thursday, June 8.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-06-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Street cheering for U-20 nat'l football team to begin 5 a.m. Friday</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://koreatimes.co.kr/www/nation/2023/06/600_352608.html?utm_source=fl</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The Korea Football Association (KFA) said Thursday that local authorities gave their final approval earlier in the day for the outdoor viewing event at Gwanghwamun Square in central Seoul. The KFA will organize the event with Seoul Metropolitan Government and the Red Devils, the official supporters group for national football teams. The KFA said the Federation of Korean Industries, the sports ministry and the Seoul government will sponsor the cheering event.Players of South Korea celebrate their team's 1-0 victory over Nigeria at the end of FIFA U-20 World Cup quarterfinal soccer match at the Madre de Ciudades stadium in Santiago del Estero, Argentina, June 4. The Korea Football Association (KFA) said Thursday that local authorities gave their final approval earlier in the day for the outdoor viewing event at Gwanghwamun Square in central Seoul. The KFA will organize the event with Seoul Metropolitan Government and the Red Devils, the official supporters group for national football teams.</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-06-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>PHOTOS: Gachagua interacts with schoolchildren during morning run in Meru town</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://www.k24tv.co.ke/news/gachagua-interacts-with-pupils-during-morning-run-105156/</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deputy President Rigathi Gachagua shared a moment with schoolchildren and residents of Meru town during a morning run on Friday, June 9, 2023. The DP, who is in the county for a high-level consultative Coffee Stakeholders’ Conference, says it was fulfilling to interact with children and other industrious Kenyans braving the chilly morning on their […]Deputy President Rigathi Gachagua shared a moment with schoolchildren and residents of Meru town during a morning run on Friday, June 9, 2023. The DP, who is in the county for a high-level consultative Stakeholders' Conference, says it was fulfilling to interact with children and other industrious Kenyans braving the chilly morning on their way to school and work. "In readiness for the high-level consultative Coffee Stakeholders' Conference in Meru County, I took time for my morning walk in the streets of Meru Town," the DP said in a tweet.</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-06-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Arnold Schwarzenegger Religion: Is He A Catholic Christian?</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://www.vizaca.com/arnold-schwarzenegger-religion/</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He starts weight lifting at 15, and by the time he was 20, he had won the title of Mr. Universe. He starts weight lifting at 15, and by the time he was 20, he had won the title of Mr. Universe. In a video posted on YouTube , he said, “I grew up as a Catholic, I went to church, I went to Catholic schools, I learned the Bible and my catechisms.” And one term I learned back then still rings true today, “A servant’s heart serves a cause greater than oneself.” He was urging public officials serving at the moment to uphold the values that our religion teaches us. Furthermore, he emphasized that the public needed to see “a public servant’s heart” in order to elect them as their leader. He stated, ‘we need public workers who will uphold the ideas upon which this country was formed and serve as an example to other nations.’ In an interview with Danny DeVito recently, Arnold expressed doubt about the fact that heaven is more than a make-believe place. “It makes me think of the question that Howard Stern asked,” Arnold said as they were being interviewed by Interview Magazine. If someone tries to tell you otherwise, they’re a liar.” He said, “I don’t know what occurs with the soul because I am not an expert in this spiritual stuff. But about the body, we will never see each other again like we see each other in this world.” In the words of Danny, “We deteriorate.” The Terminator actor elaborated, “Although it is consoling to be told, “I’ll see them again in heaven,” the reality is that we will never see each other again after we pass away. Since the Governor’s office made decisions on regulating dietary supplements in California, many people saw the deal, including the contract that compensated Schwarzenegger at least $1 million a year, as a conflict of interest when it was made public in 2005. Moreover, Arnold also won five Mr. Universe competitions (four with the NABBA in England and one with the IFBB in the United States).</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-06-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Sale closed in San Jose: $3.2 million for a three-bedroom home</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://www.mercurynews.com/2023/06/09/sale-closed-in-san-jose-3-2-million-for-a-three-bedroom-home/</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The property located in the 2100 block of Jonathan Avenue in San Jose was sold on May 26, 2023, for $3,165,000, or $2,324 per square foot.A 1,362-square-foot house built in 1950 has changed hands. The property located in the 2100 block of Jonathan Avenue in San Jose was sold on May 26, 2023, for $3,165,000, or $2,324 per square foot.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-06-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Lionel Messi’s move to Inter Miami sparks huge fan reaction</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://www.aljazeera.com/sports/2023/6/9/lionel-messis-move-to-inter-miami-sparks-huge-fan-reaction</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Inter's Instagram account quintupled since the World Cup champion revealed he will join the Major League Soccer club.Lionel Messi’s has sparked excitement among fans of the Argentinian football star, driving huge numbers in social media and skyrocketing ticket sales. While Messi has yet to put pen to paper, Inter Miami’s followers on Instagram quintupled since the revealed on Wednesday that he would be heading to the Major League Soccer club after his exit from French side Paris Saint-Germain. Ticketing technology company Logitix analysed ticket demand across the league in the 24 hours since Messi’s announcement and found there were four times the number of tickets sold on the secondary market for Inter Miami matches compared with the entire on-sale period of 169 days previous to that.</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-06-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>News24.com | Wind returns to top of list of German power sources</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://www.news24.com/fin24/Climate_Future/Energy/wind-returns-to-top-of-list-of-german-power-sources-20230607</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Just under a third of electricity generated in Germany came from wind power in the first quarter of 2023, according to data.Just under a third of electricity generated in Germany came from wind power in the first quarter of 2023, according to data released on Wednesday, as wind turbines edged past coal as the nation's top power provider.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-06-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>News24.com | OPINION | Drastic tax changes may be coming for trusts with foreign beneficiaries</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://www.news24.com/fin24/Opinion/opinion-drastic-tax-changes-may-be-coming-for-trusts-with-foreign-beneficiaries-20230610</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Consequently, it is proposed that the provisions relating to income be aligned with those applicable to capital gains (as interpreted by SARS) so that income that is awarded to a South African tax resident beneficiary in the same tax year will continue to be taxable in the beneficiary’s hands on the flow-through basis, but that any income that is awarded to a foreign beneficiary will be "trapped", and taxed, in the hands of the South African trust.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-06-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>The Na’vi in 'Avatar: The Way of Water' Are Master Breath-holders — Here’s How Anyone Can Learn This Incredible Skill</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://www.inverse.com/health/navi-avatar-the-way-of-water-breath-holders-heres-learn-this-skill</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> According to breath-hold experts, most people can learn to go without oxygen for far longer than they’d think.With a little training, you can stay underwater much longer than you’d think. As someone who has engaged in their fair share of recreational pool breath-holding competitions, I couldn’t imagine lasting seven minutes, let alone one. But according to breath-hold experts, most people can learn to go without oxygen for far longer than they’d think. Without any training, the average healthy person has the ability to hold their breath for around two minutes, , freediving instructor and co-owner of East Coast Divers in Brookline, Massachusetts, tells . “I'm going to acknowledge [the feelings], but I'm not going to react.” If that sounds like meditation, that’s because it’s not far off. Training over time can also increase most people’s total lung capacity, which is the volume of air in the lungs after an inhale, , who studies the physiology of freediving at the Université de Rouen, tells . Lungs contain some amount of air that the breather can’t access, called “residual volume.” Strengthening respiratory muscles helps reduce that residual volume while also increasing the total lung capacity. “Almost any persistent person who decides to train regularly for a certain period of time can become an elite freediver,” national Croatian freediving coach and apnea researcher told in an email. “If you get back into easy, that's where it becomes problematic.” That’s why experts emphasize that it’s extremely important to always train with a partner. It’s also why hyperventilating before a breath-hold is a bad idea, even though it feels like you’re filling your lungs in a helpful way. While that will reduce discomfort, it also means oxygen will be your limiting factor instead of CO2 — and that’s much more dangerous. As many as 300 people in the film crew waited for the actor to complete a “breathe-up” — a few minutes of slow, calm breathing to prepare for the breath-hold. Given the training and the hit of nitrox, Lemâitre was not incredibly impressed with Winslet’s seven minutes underwater.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-06-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Pine Richland Racist Photo – School District Takes Swift Action</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://www.vizaca.com/pine-richland-racist-photo/</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A school district in the Pittsburgh region is looking into a picture that two kids from Pine-Richland Middle School took that was extremely improper and disrespectful. The post Pine Richland Racist Photo – School District Takes Swift Action appeared first on Vizaca.The discovery of a controversial Pine-Richland racist photo has sparked outrage and prompted immediate action from school officials. A school district in the Pittsburgh region is looking into a picture that two kids from Pine-Richland Middle School took that was extremely improper and disrespectful. He claims that the district is fully committed to creating a safe, inclusive, and supportive school environment that encourages all students’ development and learning. In a previous incident, a student from Pine-Richland High School spread a racist message on social media. Additionally, the school district has shown its commitment to fostering an environment where all students can thrive without discrimination, despite the seriousness of these incidents. Although additional information about the investigation has not been provided, it is evident that the school district is actively addressing the problem and placing student welfare first.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-06-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Air fares may stay sky-high, say industry experts</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://www.thehindubusinessline.com/economy/logistics/air-fares-may-stay-sky-high-say-industry-experts/article66953803.ece</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the United States, the air ticket price index published by the St Louis Federal Reserve showed an 11-per cent increase in air ticket prices between April 2019 and April 2023.By AFP Comments READ LATER Despite the recent fall in oil prices, high air fares may stay in place for some time to come, say airline industry professionals and experts. In the United States, the air ticket price index published by the St Louis Federal Reserve showed an 11 per cent increase in air ticket prices between April 2019 and April 2023. However “labour costs and other costs associated with the supply chain... seem to be higher or rising,” Marie Owens Thomsen, IATA’s chief economist said earlier this week in Istanbul. “Airlines will have to find a way to cover those costs or they will start making losses again,” at a time when they are barely back in the black and have to pay off the colossal debts incurred due to Covid-19, she added at the general meeting of her association, which brings together 300 airlines from around the world. For Vik Krishnan, a specialist in the airline sector at strategy consultancy McKinsey, the main issue is now “less about oil prices and more about the fact that there are too few seats chasing too many people who want to be in them”. “Many airlines had to recut their deals with their flight and cabin crews... but also all of the supply, the ground handlers, the maintenance shops, they all had to pay considerably higher wages coming out of Covid,” said Geoffrey Weston, from the consultancy firm Bain &amp; Company. Also read: booking.com sees chunk of bookings coming from domestic and outbound travel “There aren’t many factors that are going to bring ticket prices down,” echoed Pascal Fabre, aviation sector specialist at AlixPartners. And given that the airline industry will have to invest hundreds, if not thousands, of billions of dollars in new aircraft and renewable fuels if it hopes to meet its 2050 decarbonisation target, IATA’s Owens Thomsen sees no respite for consumers any time soon.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-06-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Mac DeMarco clarifies that he is not retiring</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://www.nme.com/news/music/mac-demarco-clarifies-that-he-is-not-retiring-3453777?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=mac-demarco-clarifies-that-he-is-not-retiring</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He recently recently released his 199-song album ‘One Wayne G’ The post Mac DeMarco clarifies that he is not retiring appeared first on NME.He recently recently released his 199-song album ‘One Wayne G’ Mac DeMarco has confirmed he has no plans to retire in the near future. Perhaps.” After recently releasing his 199-song album ‘One Wayne G’ , DeMarco went on to say that he is planning on recording another album. I don’t know when it will come out -probably not for a long time.” DeMarco also recently announced a world tour which is set to start in July, kicking off at The Ford Theatre in LA on July 14 before taking in further shows in New York and Paris and finally wrapping up at Hackney Empire on August 1 following a run of a trio of gigs.</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-06-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>News24.com | Legendary former Bafana Bafana coach Clive Barker dies</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://www.news24.com/sport/Soccer/BafanaBafana/legendary-former-bafana-bafana-coach-clive-barker-dies-20230610</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In March this year, it was revealed that Barker, who famously coached South Africa to Africa Cup of Nations success in 1996, had been diagnosed with Lewy Body Dementia (LBD). "It is with profound sadness that the family of former Bafana Bafana coach Clive Barker announce his passing on Saturday, 10 June after a brave battle with Lewy Body Dementia (LBD)," the statement read. "We have been overwhelmed by the enormous outpouring of love and support for Clive since he was first diagnosed with LBD, and this is a testament to the coach, friend, and mentor he was to not only several generations of footballers, but also anyone who crossed his path in the sport he so dearly loved. In a coaching career that spanned 42 years, Barker mentored teams including AmaZulu, Manning Rangers, Durban City, Durban Bush Bucks, Santos Cape Town, Wits and, as his last assignment, Maritzburg United, which came to an end in 2016.</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-06-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>PinkPantheress shares new song ‘Angel’ from ‘Barbie’ soundtrack</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://www.nme.com/news/music/pinkpantheress-shares-new-song-angel-from-barbie-soundtrack-3453779?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=pinkpantheress-shares-new-song-angel-from-barbie-soundtrack</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The soundtrack also features Dua Lipa, Haim, Tame Impala and more The post PinkPantheress shares new song ‘Angel’ from ‘Barbie’ soundtrack appeared first on NME.The soundtrack also features Dua Lipa, Haim, Tame Impala and more PinkPantheress has shared a new song called ‘Angel’, which appears on the Barbie soundtrack – listen to the new track below. Its soundtrack will also feature Dua Lipa , who released new single ‘Dance The Night’ last week. Full details of the soundtrack ‘Barbie: The Album’ were also revealed this month, with 17 of the artists appearing on the collaboration album, including Haim , Tame Impala , Lizzo and Nicki Minaj .</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-06-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>News24.com | Seven police officers dead in one week</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://www.news24.com/news24/SouthAfrica/News/seven-police-officers-dead-in-one-week-20230610</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Another police officer was killed on Friday in the line of duty, taking to seven the number of officers who died this week.Another police officer was killed on Friday in the line of duty, taking the number of officers who died this week to seven. Detective Warrant Officer Neels Du Rand, 47, was killed at about 02:45 while responding to a crime scene. Du Rand called his colleagues at Villiers police station, informing them he was following a hijacked truck on the gravel road between Villiers and Standerton, requesting backup. They continued searching the farm and later discovered an Isuzu bakkie belonging to Du Rand,” police spokesperson Sergeant Josephine Rani said. National police commissioner General Fannie Masemola said Du Rand was among seven officers who died this week. We [also] offer our condolences to the family, friends and colleagues of the detective commander of Mooinooi police station, Lieutenant-Colonel Morris Lekone Mohajane , who was killed after a hijacking incident outside his home. "We also pay tribute to Constables Mohlopi, Mokoena and Mdende from Fochville police station, who tragically lost their lives in a car accident 10km outside Potchefstroom on Tuesday afternoon. "Our sincerest condolences also go to the families of Sergeant Maja, who was fatally shot in a shootout with suspects in Mamelodi during an operation by the Hawks Tactical Operations Management Section," Masemola said.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-06-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Matthew Piontkowski Obituary – Lieutenant Lost His Life To Cancer</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://www.vizaca.com/matthew-piontkowski-obituary/</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The heartbreaking news of Matthew Piontkowski’s death sent shockwaves through the fire departments in South Carolina. The Murrells Inlet-Garden City Professional Firefighters Association shared the devastating update on Facebook that Lieutenant Piontkowski lost his battle to line-of-duty cancer on Friday. The heartbreaking news of Matthew Piontkowski’s death sent shockwaves through the fire departments in South Carolina. The Murrells Inlet-Garden City Professional Firefighters Association shared the devastating update on Facebook that Lieutenant Piontkowski lost his battle to line-of-duty cancer on Friday. The firefighter association expressed their deep sorrow, emphasizing the impact that Lieutenant Piontkowski had on every individual he encountered throughout his career. The Murrells Inlet-Garden City Fire District expressed their profound sadness over the loss of Lieutenant Firefighter/Paramedic Matthew Piontkowski, leaving the community in deep mourning. Lieutenant Matthew Piontkowski began his service with the Murrells Inlet-Garden City Fire Department in March 2018, following seven dedicated years with the Horry County Fire Rescue. Various honors and recognitions acknowledged Lieutenant Piontkowski’s remarkable assistance, including the prestigious Worcester Firefighters’ Award of Bravery.</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-06-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>News24.com | Manchester City win first Champions League title, complete treble</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://www.news24.com/sport/Soccer/ChampionsLeague/manchester-city-win-first-champions-league-title-complete-treble-20230610</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In City's best chance of that half, the otherwise muted Erling Haaland shot straight at Andre Onana in the Inter goal and Silva curled a shot just wide before that.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-06-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Dragon Ball Anime Comes to Life With Help From Some... Cookies</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://comicbook.com/anime/news/dragon-ball-anime-cookie-recreation/</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dragon Ball has become one of the biggest anime franchises of all time, as many fans in North America will state that the series is responsible for introducing many to anime in general. While Dragon Ball Z is easily the most popular part of the shonen series, it all began by focusing on a young ...Dragon Ball has become one of the biggest anime franchises of all time , as many fans in North America will state that the series is responsible for introducing many to anime in general. While Dragon Ball Z is easily the most popular part of the shonen series, it all began by focusing on a young Goku who was searching for the Dragon Balls. The Dragon Ball series first began in 1984 , introducing fans to the young Goku and his friends as they attempted to track down the Dragon Balls. While there were quite a few years between the ending of Dragon Ball Z and the beginning of Dragon Ball Super , the franchise has wasted little time in throwing universe-ending threats at Goku and company. 【新記事公開！】 お菓子クリエイターのまんなたぬきさん（ @maaco414 ）と一緒に、 アイシングクッキーで名シーンを再現してみました。 ↓記事はこちら↓ https://t.co/Gptq9czhgf pic.twitter.com/1IKWZTsP1v — ドラゴンボールオフィシャル (@DB_official_jp) June 8, 2023 As Dragon Ball fans know, the future of Dragon Ball Super's anime adaptation is anyone's guess at this point. Following the success of Dragon Ball Super: Super Hero, the creative minds behind the endeavor have hinted at a new project in the shonen universe, but have shared little details about where the Z-Fighters might go next. Luckily, Super Dragon Ball Heroes is continuing to release new episodes that follow Goku and company through battles that would have never made their way into the main storyline.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-06-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Nigerian Government Imposes 10% Tax on Gains From Crypto Assets</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://www.thecoinrepublic.com/2023/06/10/nigerian-government-imposes-10-tax-on-gains-from-crypto-assets/</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> As per the recent news, on May 28, 2023, Muhammadu Buhari, former President of Nigeria, signed the Finance Bill, 2023 into law as Finance Act, 2023. A series of …Nigerian Government Imposes 10% Tax on Gains From Crypto Assets As a top ranking country in the world for cryptocurrency usage and ownership, Nigeria has once again come under the spotlight of the crypto world. As per the recent news, on May 28, 2023, Muhammadu Buhari, former President of Nigeria, signed the Finance Bill, 2023 into law as Finance Act, 2023. Amongst all, the most groundbreaking amendment the Act has introduced is the inclusion of digital assets as ‘chargeable assets’ and a taxation of gains on the disposal of digital assets (including cryptocurrencies, (NFTs), and other tokenized assets) at the rate of 10%. Before the announcement of Financial Act 2023, lack of regulations regarding the taxation of digital assets in Nigeria had given rise to ambiguity. With the introduction of the Finance Act, 2023, the Nigerian government aims to ensure that the digital asset holders also contribute their fair share to the nation’s development. In contrast, an anonymous local crypto expert said that the taxing of crypto and digital assets would be challenging owing to their unique attributes, e.g., valuation, tracking of transactions, and international complexities.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-06-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Arnold Schwarzenegger Recounts His Highs And Lows In ‘Arnold’ Docuseries On Netflix</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://deadline.com/2023/06/arnold-schwarzenegger-recounts-his-highs-and-lows-in-arnold-docuseries-1235413642/</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arnold Schwarzenegger is being dissected in Netflix’s new three-part docuseries, Arnold, which looks back on his multipronged career as a bodybuilding champion, California Governor, and movie star. The stories are flowing from the 75-year-old Schwarzenegger in the series, which takes a candid look at his Hollywood era. One […]Arnold Schwarzenegger is being dissected in Netflix’s new three-part docuseries, Arnold , which looks back on his multipronged career as a bodybuilding champion, California Governor, and movie star. The stories are flowing from the 75-year-old Schwarzenegger in the series, which takes a candid look at his Hollywood era. Schwarzenegger played action hero character Jack Slater in the 1993 film, the hero who bonds with a young movie fan, played by Austin O’Brien, in an imaginary action film. Related Story Arnold Schwarzenegger Outlines The Bruce Willis Legacy “When Last Action Hero came out I had reached my peak after Terminator 2 , having the most successful movie of the year worldwide,” Schwarzenegger says in the docuseries. That’s the only time I’ve ever heard him down.” “I didn’t want to see anyone for a week,” Schwarzenegger acknowledged. “Sometime in the middle of the shoot, we’re doing this police station scene,” said Cameron. “The line is, ‘I’ll come back.’ It wasn’t meant to be like a big moment at all. It was literally meant to be, on its face, ‘No problem, I’ll come back.’ Arnold didn’t say, ‘I’ll come back.’ I said, ‘Well, just say “I’ll be back.” Keep it simple. He claimed it would be “funny” for a machine to say the line, and wanted to change it to, “I will be back” because it sounded more “machine-like.” Cameron didn’t like it. Schwarzenegger describes the argument as, “He says, ‘Are you a writer?’ and I said, ‘No,’ and he said, ‘Well, don’t tell me how to f*cking write.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-06-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>UEFA Champions League 2023: Manchester City Beat Inter 1-0 to Clinch Title and Complete Treble</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://www.news18.com/football/uefa-champions-league-2023-manchester-city-beat-inter-1-0-to-clinch-title-and-complete-treble-8050225.html</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Spanish midfielder Rodri netted in the 68th minute to see the Premier League champions and FA Cup winners complete a treble of trophies this season with their first ever UCL win as Pep Guardiola claimed his third continental titleManchester City won the Champions League title for the first time by beating Inter Milan 1-0 in Istanbul’s Ataturk Olimpiyat Stadium on Saturday. While it is the first time City has won European soccer’s biggest club competition, it is the third time Pep Guardiola has lifted the trophy as a coach. The victory means the club finally achieved its ambition of reaching the summit of European soccer, 15 years after Abu Dhabi’s ruling family transformed it into the richest teams in the world.</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-06-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Would YOU survive an alien invasion? New study finds which states' residents have the best chance</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://www.dailymail.co.uk/news/article-12181145/Would-survive-alien-invasion-New-study-finds-states-residents-best-chance.html?ns_mchannel=rss&amp;ns_campaign=1490&amp;ito=1490</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The best and worst states for surviving an alien invasion have been revealed amid a spike in UFO mania Virginia residents will fare the best, while the wide open landscape and high numbers of UFO sightings put West Coast metros at the bottom READ MORE: How a crashed UFO recovered by the US military 'distorted space and time' By Will Potter For Dailymail.Com Published: 22:09, 10 June 2023 | Updated: 22:22, 10 June 2023 e-mail 4 View comments An ominous spike in UFO sightings has captured America's imagination - but what state is the safest to live in if aliens decide to invade the earth? The number of UFO sightings per state were also included in the study, after a Pentagon chief recently admitted hundreds of flying saucers have already been spotted 'all over the world.' America's recent obsession with alien invaders comes after intelligence officials have made a series of startling revelations, with even Barack Obama admitting he saw UFO footage he 'can't explain' . One of the main reasons for the state's poor showing is its large number of UFO sightings, while it also has a lack of helpful terrain such as caves and forests. A high number of apparent UFO sightings in recent years has led many to speculate if an alien invasion is imminent - or if one quietly happened already The study comes amid heightened interest in extraterrestrial activity in the US, with Congress hosting several high-profile hearings confirming the existence of 'UAPs' - stood for unidentified aerial phenomenon. Earlier this month, a Pentagon chief admitted during NASA's first-ever public hearing that hundreds of UFOs have been spotted 'all over the world' . Physicist Dr. Sean Kirkpatrick, director of the Pentagon's All-domain Anomaly Resolution Office (AARO), said: 'We see these ('metallic orbs') all over the world, and we see these making very interesting apparent maneuvers.' 'UFOs are now being treated as a defense and national security issue, discussed in the United States Congress, and attracting attention from the Head of NASA. 'It's difficult to tell whether we're seeing a genuine spike in UFO sightings - and if so, what this means - or whether what's happening is that a higher proportion of sightings is being reported, as a result of the current mainstream media coverage of this subject. 'Regardless of the truth about these various incidents, it focuses on the fact that UFO sightings - whatever their cause - have serious and profound defense, national security, and air safety issues.'</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-06-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Who was Ted Kaczynski? How the 'Unabomber' went from Harvard prodigy to notorious domestic terrorist</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://www.dailymail.co.uk/news/article-12181281/Who-Ted-Kaczynski-Unabomber-went-Harvard-prodigy-notorious-domestic-terrorist.html?ns_mchannel=rss&amp;ns_campaign=1490&amp;ito=1490</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Infamous domestic terrorist Ted Kaczynski was found dead Saturday morning in his cell in federal prison, 27 years after his reign of terror was brought to an end.Unabomber unmasked: Serial killer Ted Kaczynski went to Harvard before his descent into madness that saw him terrorize the nation for two decades - until his BROTHER ratted him out Domestic terrorist Ted Kaczynski was found dead Saturday morning in his cell in federal prison He was serving a life sentence for executing 16 bombings over a 17-year campaign of terror from 1978 to 1995 Before his descend into madness, Kaczynski was a genius mathematician who attended Harvard aged just 16 By Will Potter For Dailymail.Com Published: 19:54, 10 June 2023 | Updated: 22:19, 10 June 2023 e-mail 6 shares 34 View comments Infamous domestic terrorist Ted Kaczynski was found dead Saturday morning in his cell in federal prison , 27 years after his reign of terror was brought to an end. Known across America as the 'Unabomber' while authorities desperately sought him from 1978 to 1996, he waged war on unsuspecting victims by mailing explosives via the US postal system. Over an 17-year campaign, Kaczynski killed three people and injured 23 more with 16 bombs. But his descent into madness came after he became known as a prodigious Harvard-educated mathematician with a genius-level intellect, leading many to question where it went wrong for the notorious terrorist . From a young age it quickly became apparent that Kaczynski was a genius-level mathematician, and he skipped the sixth and 11th grades on his way to attending Harvard aged just 16. In 1971, an unemployed Kaczynski bought a 4-mile parcel of land in the wilderness outside Lincoln, Montana, where he built a cabin without heating, plumbing or electricity. When Ted began posting offensive limericks about her, his brother fired him, sending him back to the woods where he hatched his plot to terrorize society. The domestic terrorist used his knowledge of bomb making and engineering to hatch an insidious plot to spread fear and chaos across America, usually by posting bombs to his unsuspecting victims via the US postal system. Pictured: An FBI reproduction of one of Kaczynski's bombs In April 1996 authorities found Kaczynski in a 10-by-14 foot wood cabin outside Lincoln, Montana What did the Unabomber believe? Throughout the 17-year hunt for Kaczynski, which was the longest and coldest manhunt in US law enforcement history, the bomber shot to infamy as an elusive and almost-mystical criminal mastermind. In 1995, he released his twisted manifesto, 'Industrial Society and Its Future', and promised to stop mailing bombs if it was published. His capture in 1996 revealed that the terrorist was living a hermit-like existence in the Montana wilderness, where he would construct explosives miles from civilization before sending them across the nation. The domestic terrorist insisted he was not insane when he carried out the series of bombings David Kaczynski (right), the brother of Ted Kaczynski, holds hands with his mother Wanda (left) as they arrive to the Unabomber's murder trial How was the Unabomber arrested? He left authorities baffled as he mailed untraceable bombs across the US, leaving them with little evidence to track down the terrorist. The year before, he had stepped up his bombs and letters to newspapers, leading experts to speculate the 'Unabomber' was jealous of the attention being paid to Oklahoma City bomber Timothy McVeigh. When The Washington Post, in collaboration with The New York Times, published his manifesto, his brother David and his wife Linda Patrik realized Ted may be the mystical bomber terrorizing America for almost two decades. Patrik claimed she had a disturbing feeling about her brother-in-law even before seeing the manifesto, and the couple enlisted the help of her childhood friend Susan Swanson, a private investigator, to verify the link. 'It was a nightmare,' David Kaczynski, who as a child had idolized his older brother, said in a 2005 speech at Bennington College. 'I was literally thinking, ‘My brother’s a serial killer, the most wanted man in America.’' His tip-off led federal agents to trace Kaczynski to his Montana hideout, before he was arrested and sentenced to life behind bars without the possibility of parole.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-06-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Ted Kaczynski, aka the 'Unabomber,' wrote in prison letters that he did not regret his crimes</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://www.dailymail.co.uk/news/article-12181233/Ted-Kaczynski-aka-Unabomber-wrote-prison-letters-did-not-regret-crimes.html?ns_mchannel=rss&amp;ns_campaign=1490&amp;ito=1490</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Notorious domestic terrorist Ted Kaczynski, also known as the 'Unabomber', showed no remorse over his package bomb spree which killed three people and injured 23 others.No remorse even at the end: Ted Kaczynski, aka the 'Unabomber,' told prison pen pal love interest in 2018 that he did NOT regret bombings that left three people dead and 23 injured Ted Kaczynski orchestrated 16 bombings over a 17-year reign of terror and was given a life sentence without parole when he was finally caught in 1996 But while in jail, he revealed he doesn't regret a single moment of his bombing campaign and told a love interest his actions were justified He died on Saturday at a federal prison in North Carolina aged 81, the Bureau of Prisons confirmed. His cause of death was not immediately known By Kamal Sultan For Dailymail.Com Published: 15:02 EDT, 10 June 2023 | Updated: 17:19 EDT, 10 June 2023 e-mail 38 shares 26 View comments Notorious domestic terrorist Ted Kaczynski, also known as the 'Unabomber', showed no remorse over his package bomb spree across the nation which killed three people and injured 23 others. Notorious domestic terrorist Ted Kaczynski, also known as the 'Unabomber', showed no remorse over his package bomb spree which killed three people and injured 23 others He died on Saturday at a federal prison in North Carolina aged 81, the Bureau of Prisons confirmed. Kaczynski orchestrated 16 bombings over a 17-year reign of terror and was given a life sentence without the possibility of parole when he was finally caught in 1996 But while in jail, he revealed he doesn't regret a single moment of his bombing campaign and told a love interest his actions were justified The terrorist killed three and injured 23 by mailing explosives across America. Pictured: An FBI reproduction of one of Kaczynski's bombs Kaczynski later targeted colleges in Utah, Tennessee, California, and Michigan as well as airlines. Kaczynski continued his random rampage for 18 years until his 35,000 word manifesto 'Industrial Society and Its Future' was published in Washington Post and The New York Times in September 1995. Kaczynski was eventually captured living a hermit-like life in the Montana wilderness after retreating to a solitary cabin Kaczynski had been moved to the federal prison medical facility in North Carolina after spending two decades in a federal Supermax prison in Colorado And he offered no apology for his actions which resulted in three people dying and 23 others being injured. Share or comment on this article: Ted Kaczynski, aka the 'Unabomber,' wrote in prison letters that he did not regret his crimes e-mail 38 shares Add comment Comments 31 Share what you think Newest Oldest Best rated Worst rated View all The comments below have not been moderated.</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-06-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Stanley Tucci to interview Paul McCartney to launch new London Beatles exhibition</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://www.nme.com/news/music/stanley-tucci-to-interview-paul-mccartney-to-launch-new-london-beatles-exhibition-3453875?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=stanley-tucci-to-interview-paul-mccartney-to-launch-new-london-beatles-exhibition</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paul McCartney Photographs 1963-64: Eyes Of The Storm will show what ‘Beatlemania’ looked like from the bassist and singer’s Pentax camera, and McCartney will be in conversation with Tucci for an in-person and live-streamed event on June 29 at 2pm BST. “The fact that these photographs have been taken by the National Portrait Gallery for their reopening after a lengthy renovation is humbling yet also astonishing – I’m looking forward to seeing them on the walls, 60 years on, and reminiscing about those times with the wonderful Stanley Tucci.” Tucci added: “I am honoured and thrilled to interview Paul McCartney about these photos and that time in his extraordinary life. Speaking in the book’s foreword, McCartney said of the period: “It felt like millions of eyes were suddenly upon us, creating a picture I will never forget for the rest of my life.” Of his love of photography, he added: “The truth is that I’ve always been interested in photography, from the time I was very young, when our family owned a little box camera in the 1950s. “I used to love the whole process of loading a roll of Kodak film into our Brownie camera.” Elsewhere, the earliest known full recording of The Beatles playing a live show in the UK has been found almost exactly 60 years after it was made.</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-06-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>The Unabomber's cabin in the Montana woods was stocked with bombs and ammo when he was arrested</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://www.dailymail.co.uk/news/article-12181323/The-Unabombers-cabin-Montana-woods-stocked-bombs-ammo-arrested.html?ns_mchannel=rss&amp;ns_campaign=1490&amp;ito=1490</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Notorious domestic terrorist Ted Kaczynski, also known as the 'Unabomber', who died on Saturday, aged 81 in federal prison in North Carolina.Inside the Unabomber's evil lair: Cabin in Montana woods - which had no electricity or plumbing - was Ted Kaczynski's bomb-making base before he was finally arrested in 1996 FBI raid Ted Kaczynski shot to infamy by executing 16 bombings over a 17-year reign of terror The Unabomber was captured in his primitive cabin in western Montana woodland after a years-long manhunt By Alice Wright For Dailymail.Com Published: 22:07, 10 June 2023 | Updated: 22:18, 10 June 2023 e-mail View comments Notorious domestic terrorist Ted Kaczynski, also known as the 'Unabomber', died on Saturday, aged 81 in federal prison in North Carolina . Kaczynski, who shot to infamy by executing 16 bombings over a 17-year reign of terror, was found dead in his cell at around 8 a.m. He was captured after a years-long manhunt tracked him to a primitive cabin in western Montana woodland, where he built the explosives he used to kill three people and injure 23 others between 1978 and 1995. The 10’ x 14’ cabin near Lincoln, Montana was built by Kaczynski and his brother David in their youth. On April 3, 1996 federal investigators raided the cabin, arresting the Unabomber and finding 'a wealth of bomb components; 40,000 handwritten journal pages that included bomb-making experiments and descriptions of Unabomber crimes; and one live bomb, ready for mailing' according to the FBI's official page . According to published FBI evidence photos , the cabin also contained the very basic cot upon which Kaczynski slept during his more than two decades there. Various bomb parts where found in the isolated cabin during the FBI's raid Various documents and ID's found to have belonged to Ted Kaczynski, also known as the 'Unabomber' The cabin has now been removed and reconstructed at the FBI Experience in Washington DC Ted Kaczynski, the 'Unabomber', stands outside his remote cabin in June 1972 What happened to it? Share or comment on this article: The Unabomber's cabin in the Montana woods was stocked with bombs and ammo when he was arrested e-mail Add comment Comments 1 Share what you think Newest Oldest Best rated Worst rated View all The comments below have not been moderated.</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-06-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Proposals to appoint a Speech and Language Therapist or Speech Pathologist for each educational zone in the country</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>http://island.lk/proposals-to-appoint-a-speech-and-language-therapist-or-speech-pathologist-for-each-educational-zone-in-the-country/</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (Dr) Sudarshani Fernandopulle proposed that a Speech and Language Therapist or Speech Pathologist be appointed for each educational zone in the country as there were a large number of school children with speech disorders. (Dr) Sudarshani Fernandopulle proposed that a Speech and Language Therapist or Speech Pathologist be appointed for each educational zone in the country as there were a large number of school children with speech disorders. The three persons who were residents of Kotawella, Rambukkana were returning from Galle after attending a funeral Published on By The Visit Board Search &amp; Seizure (VBSS) Regional Training Course held under the United Nations Office on Drugs and Crime – Global Maritime Crime Programme (UNODC–GMCP), with the aim of combating illegal drug trafficking and other crimes carried out via sea routes was conducted at the Special Boat Squadron (SBS) Headquarters and Sober Island, Trincomalee recently. Published on By The Committee on Public Enterprises (COPE) would soon initiate a thorough probe into the importation of organic fertiliser from China and Nano Nitrogen from India, its Chairman Prof. Ranjith Bandara told yesterday (11). The SLPP National List MP said so in response to the query regarding SJB and Opposition Leader Sajith Premadasa, and Leader of the House Susil Premajayantha, taking up massive losses suffered by Sri Lanka due to fertiliser imports during President Gotabaya Rajapaksa’s administration. The CID recorded Dr. Jayasundera’s statement regarding the accusations directed by MP Hearth over nano fertiliser imports, whereas Gamini Senerath, the then Secretary to Prime Minister Mahinda Rajapaksa, too, in a statement issued to the print media denied any wrongdoing on his part.</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Miss Manners: Is it just a verbal tic or is she insulting me?</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://www.mercurynews.com/2023/06/12/miss-manners-is-it-just-a-verbal-tic-or-is-she-insulting-me/</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I retired from work, on disability, 30 years ago. Even so, I have a full life — I am deeply spiritual, artistic, sociable and creative. For decades, I’ve been assisted by personal and household health care aides, as my MS has advanced in intensity and become more life-altering. Some of these people have been caring and committed; others, not so much. A year ago, a younger (40-year-old) aide began working with me. She’s the best aide I’ve ever had — hardworking, a self-starter, responsible, friendly with a keen wit, fun to chat and spend time with. She’s always using the phrase, “In my generation, we …” She applies it to almost every subject that arises — housework, manicures, child care, TV/movies, books, politics, you name it. Surely she must encounter younger people, perhaps even her own children, who tell her that her generation’s ways are old-fashioned. It should be some comfort, then, to know that the generation she purports to represent is also subject to the same attitude from younger people under the same old delusion. : I am friends with a couple whose bickering has steadily gotten worse, with the wife most often laying into the husband. She seems to have no boundaries — making fun of her husband’s speech disability, repeatedly giving him the middle finger in restaurants, etc. I told them both that the bickering makes me uncomfortable, but I doubt it will stop when I am present. What they do privately is their business, and they assure me they are happy together and that neither party feels verbally abused. However, I am embarrassed by their behavior in public and uncomfortable hearing these hurtful verbal attacks. : The expression commonly used for the opposite type of behavior is “Get a room.” In this case, it sounds as if they should get a courtroom. Yes, you could depart, saying, “I’ll leave you to settle this in private.” Or you could see them separately.</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Vodaphone launches brand new official Glastonbury app</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://www.eventindustrynews.com/news/uk-and-europe/vodaphone-launches-brand-new-official-glastonbury-app</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · New must-have free app will keep Festival-goers connected thanks to live Festival news, customisable personal line-ups and an interactive map · For the first time ever, fans can access Worthy FM via the app providing information and entertainment for people at Glastonbury · The free Official Glastonbury Festival app, powered by Vodafone is available to download free […]· · · · The free Official Glastonbury Festival app, powered by Vodafone can be downloaded now from the and It contains a host of must-have features which will help keep Festival-goers at the iconic event connected to friends and family. Festival-goers will never miss their favourite acts thanks to the personalised line-up feature and interactive map to help them navigate Worthy Farm, the home for one weekend to almost 100 stages that will host over 3,000 performances. Via the app listeners can also access Worthy Farm FM, Glastonbury’s on-site radio station, providing essential information and entertainment for those travelling to and from the Festival as well as once they are on site. Vodafone’s Connect &amp; Charge tent will also keep Festival-goers powered-up and connected with free phone charging and WiFi available from 8am-10pm on Thursday through to Sunday – record opening hours for the charging tent at the Festival.</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Ripple CTO Wants Community Input on His 'Funny' Address to Metaco Staffers</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://u.today/ripple-cto-wants-community-input-on-his-funny-address-to-metaco-staffers</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The content of the speech was both inspirational and "funny," as David put it, as it seeks to prepare the hearts of the Metaco staffers joining the bigger Ripple family. In the speech, he talked about the ongoing fight against the United States Securities and Exchange Commission (SEC) by Ripple and the broader crypto ecosystem. pic.twitter.com/zNG7GlzPz5 — David "JoelKatz" Schwartz (@JoelKatz) June 12, 2023 He specifically mentioned what he tagged as a "tyrannical regulator" that has continued to work against the populace through enforcement actions. Related XRP Community Reacts to Latest SEC Action Against Coinbase Funny but truthful Indeed, the content of the planned speech may be too assertive for a corporate environment; it does not water down the truth about the current regulatory state the industry has been plunged into under the Gary Gensler-led SEC. Ripple itself is in an unresolved legal battle with the regulator, and just last week, Binance and Coinbase exchange came under the market regulator's scrutiny for supporting the trading of unregistered crypto securities, among other charges.</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Chicken prices go through the roof as summer temperatures rise</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://www.thehindubusinessline.com/economy/agri-business/chicken-prices-go-through-the-roof-as-summer-temperatures-rise/article66960076.ece</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Poultry farmers drop production fearing higher mortality rates due to high temperatures; prices hover around Rs 290-320 a kgBy K V Kurmanath Comments READ LATER Hyderabad, June 12Chicken prices are going through the roof across the country, with a sharp drop in the production of chicks due to scorching summer temperatures. Poultry industry seeks exclusive board to regulate output, prices Errabelli Pradeep Rao, a poultry industry leader, said it was quite common for prices to go up in the summer. “The majority of poultry farmers don’t go for additional production, fearing the death of chicks due to very high temperatures. Poultry farms deliberately cut down on production in the summers to avoid higher mortality rates in the punishing temperatures,” Suresh Chitturi, Chairman and Managing Director of Srinivasa Hatcheries, told businessline . The increase can be attributed to lower placements by farmers and also due to the summer seasonal conditions,” said Sushant Rai, President, Karnataka Poultry Farmers and Breeders’ Association (KPFBA). During summer, poultry farmers traditionally reduce their placement of chicks as the mortality rate goes up due to the higher temperature. Once temperatures drop lower, we will go for normal production levels,” a poultry farmer from Ranga Reddy said.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Rappler’s Buan in Hague Talks: We have the chance to make int’l justice preserve truth</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/nation/lian-buan-hague-talks-international-justice-preserve-truth-drug-war-killings-duterte/</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'We have a chance to make international justice ensure that Filipinos never forget,' Rappler justice reporter Lian Buan tells an audience in the Netherlands, home of the International Criminal CourtMANILA, Philippines – Disinformation helped elect Rodrigo Duterte, bring back to power the family of dictator Ferdinand Marcos Jr., and whitewash all the horrors unleashed on Filipinos by the two former presidents. And as Duterte stepped down from office, leaving behind a bloody trail in the name of his violent anti-illegal drug campaign , the struggle against disinformation goes hand in hand with trying to find justice for the thousands killed . For Rappler’s justice reporter Lian Buan, a way to ensure that truth prevails is to ensure that justice – even in the international arena – is attained. In a speech during the Hague Talks , Buan noted the importance of the judgments of foreign courts in the cases against the dictator Marcos and his family which, although an imperfect narrative, remains “one of the last frontiers to preserving the truth on what happened during Martial Law.” “So for all its limitations and all of its flaws, we have the chance to make international justice preserve the truth about what went on in those six bloody years of Duterte’s war on drugs,” she said. This city in the Netherlands also houses the International Criminal Court (ICC) , which is currently investigating possible crimes against humanity committed under Duterte’s violent war on drugs. “We can lose cases, we can lose patience just by trying, but we have a chance to make international justice ensure that Filipinos never forget,” she added.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Sacrebleu CEO Ron Dyens Talks Producing Style &amp; Slate As New Film ‘Sirocco And The Kingdom Of Air Streams’ Opens Annecy: “I Have An Arborescent Way Of Thinking”</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://deadline.com/2023/06/sacrebleu-ceo-ron-dyens-career-slate-annecy-1235413588/</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ron Dyens, the founding CEO of Paris-based company Sacrebleu Productions, has built a reputation as one of Europe’s most original and prolific producers of independent animated features over the course of nearly 25 years. His company is out in force at the Annecy International Animation Film Festival this year. Its new animated feature Sirocco And […]Ron Dyens , the founding CEO of Paris-based company Sacrebleu Productions , has built a reputation as one of Europe’s most original and prolific producers of independent animated features over the course of nearly 25 years. His company is out in force at the Annecy International Animation Film Festival this year. Related Story Annecy Animation Fest Opens On Defiantly Positive Note After Knife Attack; Ceremony Features World Premiere Of Disney 100th Anniversary Short The company is also present in the short film competition with 1942-set Maurice’s Bar by Israeli filmmakers Tzor Edery &amp; Tom Prezman about the memories of a former drag queen around one of Paris’s first queer bars. Outside the film program, Sacrebleu will participate in the Works in Progress section with Gints Zilbalodis’ Flow . The Latvian director’s second feature after breakout debut Away , it revolves around a loner cat forced to share a small boat with a group of other animals after a terrible flood. The company will present a further two projects: VR work The Pond by Lucas Leonarduzzi and Antoine Morieres (in the MIFA Pitches section) and Wesley Rodrigues’s Bird Kingdom , which has been selected for Annecy’s Residency program. , which played in the Berlinale’s Generation Kplus section in 2014. Based on an original story developed by Chieux with screenwriter Alain Gagnol (who was Oscar nominated for A Cat In Paris ), it follows the adventures of two young sisters who get trapped in the pages of a children’s book and its fantastical Kingdom of the Winds. The $4.1 million (€4.9 million), 2D animation work is a co-production led by Sacrebleu with partners Take Five (Belgium) and Ciel De Paris ( France ). For its first 15 years of existence the company focused mainly on short format works, producing more than 50 in total including award winners Barking Island , Madagascar, A Journey Diary , Tram and Man On The Chair. The company broke into feature animation in 2016 with Rémi Chayé’s Long Way North , which it followed with Aga’s House , Marona’s Fantastic Tale and My Sunny Maad . Deadline talked to Dyens about Sacrebleu’s journey to date and its future animation slate. DEADLINE: Having started out as a filmmaker, you moved into producing. Through my work with short films, I understand the challenge of creating a work that stands out. There are around 3,000 short films produced in France each year and just 20 go on to circulate worldwide. I don’t mind, but it’s better if this happens earlier rather than later, which is why I push hard at the beginning. DYENS: It’s a bit of an unusual trajectory. I went to see Benoît and told him I really liked the trailer and story, and was interested in getting involved, even as a co-producer. Benoît liked the idea and told me to speak to the producer, who then decided they didn’t want to do the film any more so I took over the film with Benoît attached. We did two short films together so we could get to know one another, to test our ability to collaborate. It worked out well and one of the short films was nominated at the Césars ( Midnight’s Garden ). When it came to the feature, Benoît took a very different approach from the other animations I’ve worked on. DYENS: The wind, the two young girls, the mother and Selma, the singer, although she wasn’t a singer in the beginning. However, we didn’t get any support from the broadcasters and also missed out on [CNC] Advance on Receipts funding so the budget wasn’t as big as we hoped. We recently presented a transmedia project at Cartoon Next in Marseille involving the creation of a Sirocco universe and we’re publishing a family book with publisher Acte Sud to coincide with the release of the film in December. We’re also in talks to develop a Sirocco video game as well as with broadcasters on a potential TV series, although they’re waiting to see how the film does before committing. Dyens: We’ve just started production and we’ll show some new images. It’s a film co-produced between Latvia, France and Belgium. There’s no dialogue, it’s unclassifiable and very spiritual. DYENS: After I saw Away , I told Gints Zilbalodis I wanted to be involved in his next film. DEADLINE: You’re presenting another project called Bird Kingdom by Wesley Rodrigues at Annecy. DYENS: It’s a co-production with Brazil. For me, it’s a mix of Sam Peckinpah, Kleber Mendonça, Alejandro Jodorowsky. DYENS: When there were one or two features a year, it was easier to finance. DYENS: We try to do everything in France, even if it ends up being more costly. DYENS: It’s hard to answer that one as we’re at the beginning but in general terms I think it will have as big an impact on the world as the industrial revolution. It’s going to know that you want to be taken to the beach before you’ve even indicated that’s what you want to do, or even thought it, because it knows you so well. DYENS: No, we have another Mono No Ware by Boris Labbé, which we just started production on but we have yet to complete a VR project. DYENS: Yes, most certainly. With the platforms there’s more porosity, interpenetration between different cultures. Festivals like Cannes and Berlin receive a lot animation films, but I think when it’s a Sacrebleu film they pay attention.</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>DOT announces list of safe sites for Mayon Volcano watchers</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/nation/luzon/list-safe-sites-mayon-volcano-watchers/</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tourism department says 17 sites in Legazpi, Ligao, Camalig, and Daraga offer visitors vantage points for observing the volcanic activityALBAY, Philippines – The Department of Tourism (DOT) in the Bicol region has designated safe viewing sites in two towns and two cities in Albay in response to the growing number of tourists flocking to Albay to witness the natural spectacle of Mayon Volcano. DOT-Bicol director Herbie Aguas identified safe viewing sites in Legazpi, Ligao, Camalig, and Daraga where visitors can have vantage points for observing the volcanic activity . In Legazpi, the following locations have been recognized as safe viewing sites: Legazpi Boulevard at a distance of 16.1 kilometers Sawangan Park at 14.7 kilometers Legazpi Highlands at 15.2 kilometers Kalayaan Park at 13.2 kilometers Our Lady of Salvacion Giant Statue at 11.1 kilometers In Daraga town, the designated viewing sites include the following: Cagsawa Ruins Park at 10.38 kilometers Farm Plate at 14.38 kilometers Daraga Church at 12.01 kilometers National Museum at 10.18 kilometers In Camalig town, the following are the identified areas for safe viewing: Solong Eco Park at 16.03 kilometers Quituinan Hill at 9.76 kilometers Quitinday Greenhills at 18.7 kilometers Ligao City offers the following safe viewing sites: Mt. Masaraga Campsite at 9.84 kilometers Paayahayan sa Bulod at 10 kilometers Kawa-Kawa Hill / Bambusetum / Divine Mercy Monastery Church at 19.7 kilometers Hobbit Hill at 9.79 kilometers Ilah Nature Park at 9.82 kilometers With these designated safe viewing sites, the DOT aims to ensure the safety of tourists and spectators who wish to witness the volcanic activity in Albay.</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Fox Journalist Spots Ripple Billboards Around SEC Headquarters, XRP Community Reacts</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://timestabloid.com/fox-journalist-spots-ripple-billboards-around-sec-headquarters-xrp-community-reacts/</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the latest development, Eleanor Terrett, a Fox Business journalist, took to Twitter to draw the attention of her 78.3k followers to Ripple’s billboards, which were positioned in the least-expected spot, considering the pending SEC versus Ripple lawsuit. Are you?” was placed […] The post Fox Journalist Spots Ripple Billboards Around SEC Headquarters, XRP Community Reacts appeared first on Times Tabloid.In the latest development, Eleanor Terrett, a Fox Business journalist, took to Twitter to draw the attention of her 78.3k followers to Ripple’s billboards, which were positioned in the least-expected spot, considering the pending SEC versus Ripple lawsuit.</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>News24.com | How Covid lockdowns distorted our sense of time – new research</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://www.news24.com/life/Wellness/News/how-covid-lockdowns-distorted-our-sense-of-time-new-research-20230609</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In a new study published in PLOS ONE, my student Daria Pawlak and I have found that lockdown probably made it harder for us to accurately remember the timing of big events that happened during the pandemic. READ MORE | Working from home didn't harm mental health at the start of the pandemic -- but things changed later on We found that participants’ recollection of events in 2021 was worse than for 2019 and 2020, and similar to their recollection of events in 2017 and 2018. Importantly, participants who made more errors in event timing were also more likely to report higher levels of depression, anxiety, and physical and mental load during the pandemic, but less resilience. One explanation for these findings may relate to how our psychological state alters the perception of the passing of time , such as the perceived “slowing down” of time when there is little to occupy the mind. READ MORE | By the numbers: What load shedding does to your mental health Mental health measures aside, many participants in our research had difficulty recalling the timing of events coinciding with Covid lockdowns. In the same way that we position ourselves in a landscape using spatial markers (for example, knowing a particular turn in the road we need to take comes after a large tree), we use events – such as birthday celebrations and family holidays – as temporal markers in our “ timescape ”. Our findings build on previous evidence of altered time perception during the pandemic by showing that the perception of event timelines is affected as well as duration (that is, the feeling time is moving more slowly or quickly).</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Novatti launches AUDD on XRPL for global payments</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://www.cryptonewsz.com/novatti-launches-audd-on-xrpl-for-global-payments/</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> According to The Block Research’s 2023 Digital Asset Outlook report, stablecoins have gained product-market fit and institutional adoption, with their overall usage reaching new records in 2022. The annual adjusted transaction volume of stablecoins surpassed $7.2 trillion in 2022, reflecting a 19% year-over-year volume …The adoption of stablecoins has been steadily increasing in recent years. According to The Block Research’s 2023 Digital Asset Outlook report, stablecoins have gained product-market fit and institutional adoption, with their overall usage reaching new records in 2022. Digital currencies issued by central banks (CBDCs) and stablecoins are attracting increasing interest and exploration within the industry, as they offer enterprises and financial institutions advantages in asset tokenization, including enhanced data management, security, and stability.</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Korean actress Park Soo-ryun dies at 29</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/entertainment/celebrities/snowdrop-actress-park-soo-ryun-dies/</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The actress was also known for her roles in 'Snowdrop' and in musicals and plays like ‘Il Tenore’ and ‘Othello’MANILA, Philippines – South Korean theater actress Park Soo-ryun died after falling down the stairs on her way home Sunday, June 11. As her mother and father, we will be able to live comforted [by the thought that her heart] has gone to someone and is beating.” She appeared as a minor character in the South Korean drama, Snowdrop , which starred Jung Hae-in and BLACKPINK’s Jisoo and premiered in December 2021. .igframe iframe{ background: white; max-width: 540px; width: calc(100% - 2px); border-radius: 3px; border: 1px solid rgb(219, 219, 219); box-shadow: none; display: block; margin: 0px 0px 12px; min-width: 326px; padding: 0px; height: 967px; } @media screen and (max-width: 760px){ .igframe iframe{ height: 710px; }u } Park was mostly involved in theater, with projects like Il Tenore , Siddhartha , Finding Kim Jong Wook , The Cellar , Passing Through Love , and her latest musical, The Day We Loved .</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Ryan Gosling was offered fewer clothing options for ‘Barbie’ as “no one cares about Ken”</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://www.nme.com/news/film/ryan-gosling-was-offered-fewer-clothing-options-for-barbie-as-no-one-cares-about-ken-3455193?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=ryan-gosling-was-offered-fewer-clothing-options-for-barbie-as-no-one-cares-about-ken</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "Everybody just wants to play with Barbie," a costume designer on the film said The post Ryan Gosling was offered fewer clothing options for ‘Barbie’ as “no one cares about Ken” appeared first on NME. "Everybody just wants to play with Barbie," a costume designer on the film said A costume designer on the upcoming Barbie film has revealed that Ryan Gosling ‘s Ken was given far fewer clothing options compared to Margot Robbie ‘s titular character. Speaking to British Vogue , designer Jacqueline Durran shared that the character of Ken – portrayed by Gosling – plays second fiddle to Robbie’s Barbie in the film, at least when it comes to fashion. As Durran puts it, Ken’s primary job in the film was to be “beach”, with his wardrobe consisting mainly of retro sportswear. So Hot Skatin’ Barbie is the influence on the rollerblading look in the real world, and Ken just has his own version,” Durran added. In April, 20 posters were revealed to promote the film , showing off its stellar all-star cast including Dua Lipa as a mermaid variation of Barbie, Helen Mirren as the narrator, Michael Cera as a character called Allan and Will Ferrell , who plays the Mattel CEO.</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Karnataka to set up ‘vision groups’ across 7 sectors to promote industrial growth</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://www.thehindubusinessline.com/news/karnataka-to-set-up-vision-groups-across-7-sectors-to-promote-industrial-growth/article66963752.ece</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The government intends to promote manufacturing and industrialisation in sectors such as future mobility, green hydrogen, food processing, textiles, and warehousing &amp; logistics.By PTI Comments READ LATER The Karnataka government will constitute new vision groups across seven sectors to promote industrial development, State's Large and Medium Industries Minister M B Patil has said. @ACSIC_GOK @CommIndustries pic.twitter.com/Nu8thc6teH The proposed vision groups will span the sectors of Aerospace &amp; Defense, Machine Tools, Electronics System Design &amp; Manufacturing (ESDM), Core Manufacturing, Pharma, Startups (non-IT), and Auto/EV. Foreign embassy officials of several countries, Geetanjali Kirloskar ( Toyota Kirloskar ), Sushant Naik (Tata Motors) , Rajiv Khushu (Texas Instruments), Vincent (Foxconn) , and Amit Kumar Singh ( Asian paints ) were among representatives of over 30 industries who were present. Also read: Karnataka Cabinet to implement all five poll guarantees The government intends to promote manufacturing and industrialisation in sectors such as future mobility, green hydrogen, food processing, textiles, and warehousing &amp; logistics, he was quoted as saying by his office in a release. The government is planning to set up a Karnataka Aerospace Technology Centre at Devanahalli R&amp;D park to ease information dissemination, enable networks and market linkages and create Common Facility Centre (CFC) and incubation centres. An IFS (Indian Forest Service) officer of PCCF (Principal Chief Conservator of Forests) grade will be appointed within the department to facilitate resolution of environment-related issues, Patil said, as he also shared his experience on how such issues were successfully resolved by appointing a PCCF-grade official in the irrigation department while he worked as the minister of that department during 2013-18.</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Unlock the Zen Zone: Yoga for workaholics unleashes balance and productivity</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://www.thehindubusinessline.com/multimedia/video/unlock-the-zen-zone-yoga-for-workaholics-unleashes-balance-and-productivity/article66963838.ece</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> By BL Internet Desk Comments READ LATER B y incorporating yoga into your routine, you can break free from the constant hustle and experience a newfound balance between work and personal life.</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>News24.com | It’s time to bust the 'calories in, calories out' weight-loss myth</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://www.news24.com/life/Wellness/Diet/its-time-to-bust-the-calories-in-calories-out-weight-loss-myth-20230612</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The "calories in, calories out" formula for weight loss success is a myth because it oversimplifies the complex process of calculating energy intake and expenditure.If you’ve ever tried to lose weight, there’s a good chance you’ve been told it all comes down to a simple “calories in, calories out” formula: burn more calories than you consume, and the kilos will disappear. And it’s easy to see the appeal of breaking weight loss down into simple maths – just follow the formula, and you’ll achieve success. Indeed, the diet industry’s reliance on the “calories in, calories out” concept is why society blames people for being overweight. But the only simple truth here is that it’s time to bust the “calories in, calories out” myth as the only way to lose weight. Simply enter your sex, age, height, weight, body composition and activity levels and they’ll tell you exactly how many calories you should eat daily to lose weight. Another reason the simple “calories in, calories out” formula is not so simple is our bodies don’t consume every calorie the same way. For example, while eating 180 calories worth of nuts is the same as eating 180 calories of pizza in terms of energy intake, the way these foods are absorbed and how they affect the body is very different. While we absorb most of the calories in a slice of pizza, we don’t absorb about 20% of the calories in nuts because their fat is stored in the nut’s fibrous cell walls, which don’t break down during digestion. READ MORE | It's time to leave the Paleo Diet in the past: Recent studies have failed to support its claims The biggest failing of the “calories in, calories out” formula is it ignores that the body adjusts its control systems when calorie intake is reduced. So while the formula can support people achieving weight loss initially, the reduction in energy intake is counteracted by mechanisms that ensure lost weight is regained. Our bodies protect our set point as we lose weight, managing biological signals from the brain and hormones to hold onto fat stores in preparation for future reductions in our calorie intake. The body achieves this in several ways, all of which directly influence the “calories in, calories out” equation, including: Our bodies also cleverly trigger responses aimed at increasing our calorie intake to regain lost weight, including: READ MORE | The WHO says we shouldn't bother with artificial sweeteners for weight loss or health. The “calories in, calories out” formula for weight loss success is a myth because it oversimplifies the complex process of calculating energy intake and expenditure. So while you may achieve short-term weight loss following the formula, you’ll likely regain it. For long term weight loss, it’s important to follow evidence-based programs from health-care professionals and make gradual changes to your lifestyle to ensure you form habits that last a lifetime.</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>APTMA rejects hike in gas, electricity prices in budget</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://arynews.tv/aptma-rejects-hike-in-gas-electricity-prices-in-budget/</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAHORE: All Pakistan Textile Mills Association (APTMA) has rejected the recent hike in gas and electricity prices in the FY2023-24 budget, ARY News reported. According to the statement released by APTMA, said mills cannot be operated on the provision of electricity at 16 cents. “Punjab mills can be shut down from July 1.” The statement […]LAHORE: All Pakistan Textile Mills Association (APTMA) has rejected the recent hike in gas and electricity prices in the FY2023-24 budget, ARY News reported. According to the statement released by APTMA, said mills cannot be operated on the provision of electricity at 16 cents. Read more: Govt prioritised to enhance exports in budget: Ishaq Dar Earlier, the patron-in-chief of the All Pakistan Textile Mills Association (APTMA) Gohar Ejaz warned that approximately 10 million textile workers will be unemployed in Punjab.</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>EV charging stations: TN investors await promised tariff revision</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://www.thehindubusinessline.com/companies/ev-charging-stations-tn-investors-await-promised-tariff-revision/article66963651.ece</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Charging stations in Tamil Nadu are levied commercial power tariffs, with high fixed charges for the power supplied from the gridBy G Balachandar Comments READ LATER Electric vehicle charging infrastructure investors eagerly await the implementation of power tariff rates mentioned in the Tamil Nadu Electric Vehicle Policy 2023, for public charging stations in the state. A revision in rates will not only help attract investment in establishing more public charging stations in Tamil Nadu, but will also help the state accelerate EV adoption, EV industry stakeholders said. Though Tamil Nadu, the second wealthiest state, remains a favoured destination for electric vehicle and automotive manufacturing investments, it lags behind Maharashtra, Delhi, Karnataka, Kerala, and Gujarat in electric car penetration . Public charging stations in states such as Karnataka, Kerala, Maharashtra, and Delhi are given power at industrial rates or lower, with zero to minimal fixed charges. However, charging stations in Tamil Nadu are levied commercial power tariffs, with high fixed charges for the power supplied from the grid. Higher energy tariffs, coupled with low levels of utilisation have posed viability challenges for charging operators in the state and have curtailed further investments. It is financially unviable to operate PCS at these tariff rates,” said K P Karthikeyan, CEO &amp; Co-Founder, Zeon Electric Pvt Ltd, a leading EV charging operator in South India. Currently, the power tariff for PCS is very high and if the Tamil Nadu government wants to promote EV adoption, charging at PCS should be affordable for end-consumers.</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>News24.com | Parts of Joburg without electricity for days as City Power scrambles to fix Cydna substation</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://www.news24.com/news24/SouthAfrica/News/parts-of-joburg-without-electricity-for-days-as-city-power-scrambles-to-fix-cydna-substation-20230613</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "The team worked tirelessly throughout the weekend, day and night, often through waterlogged streams, to ensure repairs are done and power is restored.</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
         </is>
       </c>
     </row>
